--- a/nasdaq100.xlsx
+++ b/nasdaq100.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>165.11</v>
+        <v>165.73</v>
       </c>
       <c r="E2" t="n">
         <v>0.3302</v>
@@ -536,7 +536,7 @@
         <v>2.465</v>
       </c>
       <c r="G2" t="n">
-        <v>7.0445433</v>
+        <v>7.070996</v>
       </c>
       <c r="H2" t="n">
         <v>0.36372003</v>
@@ -545,7 +545,7 @@
         <v>0.15880999</v>
       </c>
       <c r="J2" t="n">
-        <v>20.11084</v>
+        <v>20.161798</v>
       </c>
       <c r="K2" t="n">
         <v>31.85</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>118.935</v>
+        <v>117.38</v>
       </c>
       <c r="E3" t="n">
         <v>0.03385</v>
@@ -589,7 +589,7 @@
         <v>2.206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5284638</v>
+        <v>0.5215544</v>
       </c>
       <c r="H3" t="n">
         <v>0.44924</v>
@@ -598,7 +598,7 @@
         <v>0.15886</v>
       </c>
       <c r="J3" t="n">
-        <v>11.284156</v>
+        <v>11.136622</v>
       </c>
       <c r="K3" t="n">
         <v>1334.46</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>157.65</v>
+        <v>157.67</v>
       </c>
       <c r="E4" t="n">
         <v>0.20981</v>
@@ -642,7 +642,7 @@
         <v>1.393</v>
       </c>
       <c r="G4" t="n">
-        <v>13.793858</v>
+        <v>13.795608</v>
       </c>
       <c r="H4" t="n">
         <v>0.44254002</v>
@@ -651,7 +651,7 @@
         <v>0.11643</v>
       </c>
       <c r="J4" t="n">
-        <v>32.775467</v>
+        <v>32.779625</v>
       </c>
       <c r="K4" t="n">
         <v>58.29</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>454.45</v>
+        <v>458.17</v>
       </c>
       <c r="E5" t="n">
         <v>0.32626</v>
@@ -695,7 +695,7 @@
         <v>1.372</v>
       </c>
       <c r="G5" t="n">
-        <v>10.495381</v>
+        <v>10.581294</v>
       </c>
       <c r="H5" t="n">
         <v>0.3361</v>
@@ -704,7 +704,7 @@
         <v>0.14581999</v>
       </c>
       <c r="J5" t="n">
-        <v>35.119785</v>
+        <v>35.462074</v>
       </c>
       <c r="K5" t="n">
         <v>37.29</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81.346</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>0.07913000000000001</v>
@@ -748,7 +748,7 @@
         <v>2.215</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6917045</v>
+        <v>2.6799245</v>
       </c>
       <c r="H6" t="n">
         <v>0.16605</v>
@@ -757,7 +757,7 @@
         <v>0.10094</v>
       </c>
       <c r="J6" t="n">
-        <v>17.125473</v>
+        <v>17.050526</v>
       </c>
       <c r="K6" t="n">
         <v>56.04</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>743.41</v>
+        <v>748.76</v>
       </c>
       <c r="E7" t="n">
         <v>0.21033</v>
@@ -801,7 +801,7 @@
         <v>1.519</v>
       </c>
       <c r="G7" t="n">
-        <v>16.664274</v>
+        <v>16.7842</v>
       </c>
       <c r="H7" t="n">
         <v>0.55618</v>
@@ -810,7 +810,7 @@
         <v>0.15335</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07322</v>
+        <v>30.216303</v>
       </c>
       <c r="K7" t="n">
         <v>55.49</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>222.35</v>
+        <v>222.87</v>
       </c>
       <c r="E8" t="n">
         <v>0.58617</v>
@@ -854,7 +854,7 @@
         <v>1.721</v>
       </c>
       <c r="G8" t="n">
-        <v>19.545534</v>
+        <v>19.591244</v>
       </c>
       <c r="H8" t="n">
         <v>0.40296</v>
@@ -863,7 +863,7 @@
         <v>0.15531999</v>
       </c>
       <c r="J8" t="n">
-        <v>51.7093</v>
+        <v>51.83023</v>
       </c>
       <c r="K8" t="n">
         <v>20.53</v>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>189.08</v>
+        <v>188.1</v>
       </c>
       <c r="E9" t="n">
         <v>2.72795</v>
@@ -907,7 +907,7 @@
         <v>1.323</v>
       </c>
       <c r="G9" t="n">
-        <v>10.719429</v>
+        <v>10.66387</v>
       </c>
       <c r="H9" t="n">
         <v>0.48707</v>
@@ -916,7 +916,7 @@
         <v>0.07545</v>
       </c>
       <c r="J9" t="n">
-        <v>23.429989</v>
+        <v>23.308552</v>
       </c>
       <c r="K9" t="n">
         <v>7.7</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70.40000000000001</v>
+        <v>69.92</v>
       </c>
       <c r="E10" t="n">
         <v>0.7711199999999999</v>
@@ -960,7 +960,7 @@
         <v>0.897</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6589117</v>
+        <v>2.6407826</v>
       </c>
       <c r="H10" t="n">
         <v>0.19793</v>
@@ -969,7 +969,7 @@
         <v>0.08158</v>
       </c>
       <c r="J10" t="n">
-        <v>28.273092</v>
+        <v>28.193548</v>
       </c>
       <c r="K10" t="n">
         <v>6.09</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>138.28</v>
+        <v>138.35</v>
       </c>
       <c r="E11" t="n">
         <v>0.33594</v>
@@ -1013,7 +1013,7 @@
         <v>0.859</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0325722</v>
+        <v>1.0330949</v>
       </c>
       <c r="H11" t="n">
         <v>0.14668</v>
@@ -1022,7 +1022,7 @@
         <v>0.07135</v>
       </c>
       <c r="J11" t="n">
-        <v>8.599503</v>
+        <v>8.603856</v>
       </c>
       <c r="K11" t="n">
         <v>16.32</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>167.3899</v>
+        <v>165.32</v>
       </c>
       <c r="E12" t="n">
         <v>0.08254</v>
@@ -1066,7 +1066,7 @@
         <v>1.768</v>
       </c>
       <c r="G12" t="n">
-        <v>5.8929725</v>
+        <v>5.820102</v>
       </c>
       <c r="H12" t="n">
         <v>0.34789002</v>
@@ -1075,7 +1075,7 @@
         <v>0.16896999</v>
       </c>
       <c r="J12" t="n">
-        <v>18.681908</v>
+        <v>18.450893</v>
       </c>
       <c r="K12" t="n">
         <v>419.37</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>342.88</v>
+        <v>346</v>
       </c>
       <c r="E13" t="n">
         <v>0.13932</v>
@@ -1119,7 +1119,7 @@
         <v>3.657</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8780766</v>
+        <v>4.922464</v>
       </c>
       <c r="H13" t="n">
         <v>0.102299996</v>
@@ -1128,7 +1128,7 @@
         <v>0.06059</v>
       </c>
       <c r="J13" t="n">
-        <v>50.872406</v>
+        <v>51.25926</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>166.06</v>
+        <v>163.98</v>
       </c>
       <c r="E14" t="n">
         <v>0.08254</v>
@@ -1172,7 +1172,7 @@
         <v>1.768</v>
       </c>
       <c r="G14" t="n">
-        <v>5.8461537</v>
+        <v>5.772927</v>
       </c>
       <c r="H14" t="n">
         <v>0.34789002</v>
@@ -1181,7 +1181,7 @@
         <v>0.16896999</v>
       </c>
       <c r="J14" t="n">
-        <v>18.533482</v>
+        <v>18.321787</v>
       </c>
       <c r="K14" t="n">
         <v>419.37</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82.86499999999999</v>
+        <v>81.92</v>
       </c>
       <c r="E15" t="n">
         <v>0.13435</v>
@@ -1225,7 +1225,7 @@
         <v>4.277</v>
       </c>
       <c r="G15" t="n">
-        <v>12.881237</v>
+        <v>12.734338</v>
       </c>
       <c r="H15" t="n">
         <v>0.32351002</v>
@@ -1234,7 +1234,7 @@
         <v>0.20121</v>
       </c>
       <c r="J15" t="n">
-        <v>41.4325</v>
+        <v>40.96</v>
       </c>
       <c r="K15" t="n">
         <v>206.85</v>
@@ -1255,48 +1255,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NXP Semiconductors N.V.</t>
+          <t>Linde plc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>209.665</v>
+        <v>459.85</v>
       </c>
       <c r="E16" t="n">
-        <v>1.21164</v>
+        <v>0.60555</v>
       </c>
       <c r="F16" t="n">
-        <v>2.085</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6937046</v>
+        <v>5.6984773</v>
       </c>
       <c r="H16" t="n">
-        <v>0.25441998</v>
+        <v>0.17013</v>
       </c>
       <c r="I16" t="n">
-        <v>0.087629996</v>
+        <v>0.06963</v>
       </c>
       <c r="J16" t="n">
-        <v>22.864231</v>
+        <v>33.322464</v>
       </c>
       <c r="K16" t="n">
-        <v>8.720000000000001</v>
+        <v>17.65</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -1308,12 +1308,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lam Research Corporation</t>
+          <t>NXP Semiconductors N.V.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1322,31 +1322,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>83.83</v>
+        <v>210.08</v>
       </c>
       <c r="E17" t="n">
-        <v>0.47148</v>
+        <v>1.21164</v>
       </c>
       <c r="F17" t="n">
-        <v>2.452</v>
+        <v>2.085</v>
       </c>
       <c r="G17" t="n">
-        <v>11.308512</v>
+        <v>5.7049747</v>
       </c>
       <c r="H17" t="n">
-        <v>0.53138</v>
+        <v>0.25441998</v>
       </c>
       <c r="I17" t="n">
-        <v>0.17291</v>
+        <v>0.087629996</v>
       </c>
       <c r="J17" t="n">
-        <v>23.350977</v>
+        <v>22.884531</v>
       </c>
       <c r="K17" t="n">
-        <v>23.12</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>508.95</v>
+        <v>515.61</v>
       </c>
       <c r="E18" t="n">
         <v>0.07147000000000001</v>
@@ -1384,7 +1384,7 @@
         <v>2.681</v>
       </c>
       <c r="G18" t="n">
-        <v>8.457269999999999</v>
+        <v>8.567939000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0.15951</v>
@@ -1393,7 +1393,7 @@
         <v>0.06647</v>
       </c>
       <c r="J18" t="n">
-        <v>61.245487</v>
+        <v>62.121685</v>
       </c>
       <c r="K18" t="n">
         <v>38.56</v>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>171.16</v>
+        <v>169.6</v>
       </c>
       <c r="E19" t="n">
         <v>0.01416</v>
@@ -1437,7 +1437,7 @@
         <v>1.318</v>
       </c>
       <c r="G19" t="n">
-        <v>8.564424000000001</v>
+        <v>8.486364</v>
       </c>
       <c r="H19" t="n">
         <v>0.26593</v>
@@ -1446,7 +1446,7 @@
         <v>0.16778</v>
       </c>
       <c r="J19" t="n">
-        <v>32.052433</v>
+        <v>31.81989</v>
       </c>
       <c r="K19" t="n">
         <v>7283.01</v>
@@ -1467,48 +1467,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Linde plc</t>
+          <t>Lam Research Corporation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>460.0558</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.60555</v>
+        <v>0.47148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9389999999999999</v>
+        <v>2.452</v>
       </c>
       <c r="G20" t="n">
-        <v>5.7010274</v>
+        <v>11.370565</v>
       </c>
       <c r="H20" t="n">
-        <v>0.17013</v>
+        <v>0.53138</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06963</v>
+        <v>0.17291</v>
       </c>
       <c r="J20" t="n">
-        <v>33.434288</v>
+        <v>23.479109</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65</v>
+        <v>23.12</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31.18</v>
+        <v>31.23</v>
       </c>
       <c r="E21" t="n">
         <v>1.62012</v>
@@ -1543,7 +1543,7 @@
         <v>0.883</v>
       </c>
       <c r="G21" t="n">
-        <v>4.813214</v>
+        <v>4.8209324</v>
       </c>
       <c r="H21" t="n">
         <v>0.26121</v>
@@ -1552,7 +1552,7 @@
         <v>0.07445</v>
       </c>
       <c r="J21" t="n">
-        <v>18.559525</v>
+        <v>18.589287</v>
       </c>
       <c r="K21" t="n">
         <v>6.48</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1033.935</v>
+        <v>1036.82</v>
       </c>
       <c r="E22" t="n">
         <v>0.31431</v>
@@ -1596,7 +1596,7 @@
         <v>0.997</v>
       </c>
       <c r="G22" t="n">
-        <v>17.937494</v>
+        <v>17.987543</v>
       </c>
       <c r="H22" t="n">
         <v>0.32894</v>
@@ -1605,7 +1605,7 @@
         <v>0.087349996</v>
       </c>
       <c r="J22" t="n">
-        <v>60.217533</v>
+        <v>60.597305</v>
       </c>
       <c r="K22" t="n">
         <v>54.94</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62.665</v>
+        <v>61.62</v>
       </c>
       <c r="E23" t="n">
         <v>0.01434</v>
@@ -1649,7 +1649,7 @@
         <v>7.888</v>
       </c>
       <c r="G23" t="n">
-        <v>7.2925634</v>
+        <v>7.170953</v>
       </c>
       <c r="H23" t="n">
         <v>0.19184999</v>
@@ -1658,7 +1658,7 @@
         <v>0.12133</v>
       </c>
       <c r="J23" t="n">
-        <v>42.05705</v>
+        <v>41.355705</v>
       </c>
       <c r="K23" t="n">
         <v>82.39</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>131.92</v>
+        <v>131.8</v>
       </c>
       <c r="E24" t="n">
         <v>2.61849</v>
@@ -1702,7 +1702,7 @@
         <v>0.834</v>
       </c>
       <c r="G24" t="n">
-        <v>9.849921999999999</v>
+        <v>9.840961999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0.49927</v>
@@ -1711,7 +1711,7 @@
         <v>0.08858000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>19.4</v>
+        <v>19.382353</v>
       </c>
       <c r="K24" t="n">
         <v>14.06</v>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>224.87</v>
+        <v>225.06</v>
       </c>
       <c r="E25" t="n">
         <v>1.88514</v>
@@ -1755,7 +1755,7 @@
         <v>1.253</v>
       </c>
       <c r="G25" t="n">
-        <v>8.275798</v>
+        <v>8.282791</v>
       </c>
       <c r="H25" t="n">
         <v>0.32676998</v>
@@ -1764,7 +1764,7 @@
         <v>0.07409</v>
       </c>
       <c r="J25" t="n">
-        <v>25.817451</v>
+        <v>25.839264</v>
       </c>
       <c r="K25" t="n">
         <v>7.24</v>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>132.38</v>
+        <v>132.13</v>
       </c>
       <c r="E26" t="n">
         <v>0.28726</v>
@@ -1808,7 +1808,7 @@
         <v>1.273</v>
       </c>
       <c r="G26" t="n">
-        <v>10.324443</v>
+        <v>10.304945</v>
       </c>
       <c r="H26" t="n">
         <v>0.3206</v>
@@ -1817,7 +1817,7 @@
         <v>0.06276</v>
       </c>
       <c r="J26" t="n">
-        <v>33.68448</v>
+        <v>33.535534</v>
       </c>
       <c r="K26" t="n">
         <v>18.29</v>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>152.48</v>
+        <v>153.82</v>
       </c>
       <c r="E27" t="n">
         <v>0.52737</v>
@@ -1861,7 +1861,7 @@
         <v>2.733</v>
       </c>
       <c r="G27" t="n">
-        <v>6.049113</v>
+        <v>6.1022735</v>
       </c>
       <c r="H27" t="n">
         <v>0.42205003</v>
@@ -1870,7 +1870,7 @@
         <v>0.13428001</v>
       </c>
       <c r="J27" t="n">
-        <v>15.543322</v>
+        <v>15.695919</v>
       </c>
       <c r="K27" t="n">
         <v>14.45</v>
@@ -1891,48 +1891,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Roper Technologies, Inc.</t>
+          <t>Ross Stores, Inc.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>576.14</v>
+        <v>154.24</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3878799999999999</v>
+        <v>1.03144</v>
       </c>
       <c r="F28" t="n">
-        <v>0.462</v>
+        <v>1.617</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2222776</v>
+        <v>9.205610999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08094999999999999</v>
+        <v>0.40282002</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04156</v>
+        <v>0.11066</v>
       </c>
       <c r="J28" t="n">
-        <v>41.538574</v>
+        <v>24.405064</v>
       </c>
       <c r="K28" t="n">
-        <v>7.7</v>
+        <v>40.79</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>414.67</v>
+        <v>417.61</v>
       </c>
       <c r="E29" t="n">
         <v>0.5011800000000001</v>
@@ -1967,7 +1967,7 @@
         <v>1.185</v>
       </c>
       <c r="G29" t="n">
-        <v>13.775039</v>
+        <v>13.872703</v>
       </c>
       <c r="H29" t="n">
         <v>0.47284</v>
@@ -1976,7 +1976,7 @@
         <v>0.17194</v>
       </c>
       <c r="J29" t="n">
-        <v>27.389036</v>
+        <v>27.546833</v>
       </c>
       <c r="K29" t="n">
         <v>45.8</v>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>223.155</v>
+        <v>224.49</v>
       </c>
       <c r="E30" t="n">
         <v>0.21725</v>
@@ -2020,7 +2020,7 @@
         <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1559186</v>
+        <v>3.1747985</v>
       </c>
       <c r="H30" t="n">
         <v>0.04429</v>
@@ -2029,7 +2029,7 @@
         <v>0.02616</v>
       </c>
       <c r="J30" t="n">
-        <v>71.52404</v>
+        <v>71.95193</v>
       </c>
       <c r="K30" t="n">
         <v>6.42</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>207.66</v>
+        <v>206.86</v>
       </c>
       <c r="E31" t="n">
         <v>1.46994</v>
@@ -2073,7 +2073,7 @@
         <v>0.821</v>
       </c>
       <c r="G31" t="n">
-        <v>46.445984</v>
+        <v>46.26705</v>
       </c>
       <c r="H31" t="n">
         <v>1.38015</v>
@@ -2082,7 +2082,7 @@
         <v>0.23809999</v>
       </c>
       <c r="J31" t="n">
-        <v>32.29549</v>
+        <v>32.27145</v>
       </c>
       <c r="K31" t="n">
         <v>29.06</v>
@@ -2103,48 +2103,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Texas Instruments Incorporated</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>187.34</v>
+        <v>343.82</v>
       </c>
       <c r="E32" t="n">
-        <v>0.78313</v>
+        <v>0.17407</v>
       </c>
       <c r="F32" t="n">
-        <v>5.258</v>
+        <v>1.996</v>
       </c>
       <c r="G32" t="n">
-        <v>10.379821</v>
+        <v>14.830055</v>
       </c>
       <c r="H32" t="n">
-        <v>0.29189</v>
+        <v>0.087740004</v>
       </c>
       <c r="I32" t="n">
-        <v>0.10038</v>
+        <v>0.03724</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54744</v>
+        <v>196.46858</v>
       </c>
       <c r="K32" t="n">
-        <v>10.51</v>
+        <v>22.17</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
@@ -2156,48 +2156,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Texas Instruments Incorporated</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>343.59</v>
+        <v>188.71</v>
       </c>
       <c r="E33" t="n">
-        <v>0.17407</v>
+        <v>0.78313</v>
       </c>
       <c r="F33" t="n">
-        <v>1.996</v>
+        <v>5.258</v>
       </c>
       <c r="G33" t="n">
-        <v>14.820134</v>
+        <v>10.456006</v>
       </c>
       <c r="H33" t="n">
-        <v>0.087740004</v>
+        <v>0.29189</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03724</v>
+        <v>0.10038</v>
       </c>
       <c r="J33" t="n">
-        <v>197.46552</v>
+        <v>35.740532</v>
       </c>
       <c r="K33" t="n">
-        <v>22.17</v>
+        <v>10.51</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -2209,48 +2209,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ross Stores, Inc.</t>
+          <t>Roper Technologies, Inc.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>155.28</v>
+        <v>578.21</v>
       </c>
       <c r="E34" t="n">
-        <v>1.03144</v>
+        <v>0.3878799999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1.617</v>
+        <v>0.462</v>
       </c>
       <c r="G34" t="n">
-        <v>9.267682000000001</v>
+        <v>3.233855</v>
       </c>
       <c r="H34" t="n">
-        <v>0.40282002</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>0.11066</v>
+        <v>0.04156</v>
       </c>
       <c r="J34" t="n">
-        <v>24.56962</v>
+        <v>41.657784</v>
       </c>
       <c r="K34" t="n">
-        <v>40.79</v>
+        <v>7.7</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2547.78</v>
+        <v>2579.21</v>
       </c>
       <c r="E35" t="n">
         <v>1.55016</v>
@@ -2285,7 +2285,7 @@
         <v>1.203</v>
       </c>
       <c r="G35" t="n">
-        <v>25.81259</v>
+        <v>26.131018</v>
       </c>
       <c r="H35" t="n">
         <v>0.49106997</v>
@@ -2294,7 +2294,7 @@
         <v>0.07739</v>
       </c>
       <c r="J35" t="n">
-        <v>62.53755</v>
+        <v>63.293495</v>
       </c>
       <c r="K35" t="n">
         <v>15.95</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>317.81</v>
+        <v>320.55</v>
       </c>
       <c r="E36" t="n">
         <v>0.51864</v>
@@ -2338,7 +2338,7 @@
         <v>3.074</v>
       </c>
       <c r="G36" t="n">
-        <v>18.16784</v>
+        <v>18.324472</v>
       </c>
       <c r="H36" t="n">
         <v>0.25921</v>
@@ -2347,7 +2347,7 @@
         <v>0.12727</v>
       </c>
       <c r="J36" t="n">
-        <v>80.66244</v>
+        <v>81.35786400000001</v>
       </c>
       <c r="K36" t="n">
         <v>18.09</v>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>605.715</v>
+        <v>614.79</v>
       </c>
       <c r="E37" t="n">
         <v>0.09204000000000001</v>
@@ -2391,7 +2391,7 @@
         <v>4.927</v>
       </c>
       <c r="G37" t="n">
-        <v>2.1827333</v>
+        <v>2.2154355</v>
       </c>
       <c r="H37" t="n">
         <v>0.15961</v>
@@ -2400,7 +2400,7 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>15.408675</v>
+        <v>15.623634</v>
       </c>
       <c r="K37" t="n">
         <v>72.3</v>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>132.76</v>
+        <v>134.38</v>
       </c>
       <c r="E38" t="n">
         <v>0.12946</v>
@@ -2444,7 +2444,7 @@
         <v>4.44</v>
       </c>
       <c r="G38" t="n">
-        <v>40.962666</v>
+        <v>41.462513</v>
       </c>
       <c r="H38" t="n">
         <v>1.1917701</v>
@@ -2453,7 +2453,7 @@
         <v>0.57417</v>
       </c>
       <c r="J38" t="n">
-        <v>45.15646</v>
+        <v>45.707485</v>
       </c>
       <c r="K38" t="n">
         <v>329.77</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>125.08</v>
+        <v>125.59</v>
       </c>
       <c r="E39" t="n">
         <v>0.04432000000000001</v>
@@ -2497,7 +2497,7 @@
         <v>6.494</v>
       </c>
       <c r="G39" t="n">
-        <v>54.406265</v>
+        <v>54.628098</v>
       </c>
       <c r="H39" t="n">
         <v>0.12357</v>
@@ -2506,7 +2506,7 @@
         <v>0.043920003</v>
       </c>
       <c r="J39" t="n">
-        <v>543.8261</v>
+        <v>546.04346</v>
       </c>
       <c r="K39" t="n">
         <v>34.57</v>
@@ -2527,45 +2527,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Kraft Heinz Company</t>
+          <t>Meta Platforms, Inc.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28.01</v>
+        <v>637.1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4355</v>
+        <v>0.26763</v>
       </c>
       <c r="F40" t="n">
-        <v>1.307</v>
+        <v>2.662</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6739167</v>
+        <v>8.687293</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0535</v>
+        <v>0.39835</v>
       </c>
       <c r="I40" t="n">
-        <v>0.037520003</v>
+        <v>0.17879999</v>
       </c>
       <c r="J40" t="n">
-        <v>12.789954</v>
+        <v>24.876999</v>
       </c>
       <c r="K40" t="n">
-        <v>6.01</v>
+        <v>97.03</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
@@ -2580,45 +2580,45 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Meta Platforms, Inc.</t>
+          <t>The Kraft Heinz Company</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>637.0678</v>
+        <v>27.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0.26763</v>
+        <v>0.4355</v>
       </c>
       <c r="F41" t="n">
-        <v>2.662</v>
+        <v>1.307</v>
       </c>
       <c r="G41" t="n">
-        <v>8.686854</v>
+        <v>0.67127013</v>
       </c>
       <c r="H41" t="n">
-        <v>0.39835</v>
+        <v>0.0535</v>
       </c>
       <c r="I41" t="n">
-        <v>0.17879999</v>
+        <v>0.037520003</v>
       </c>
       <c r="J41" t="n">
-        <v>24.934162</v>
+        <v>12.739725</v>
       </c>
       <c r="K41" t="n">
-        <v>97.03</v>
+        <v>6.01</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>63.7201</v>
+        <v>63.42</v>
       </c>
       <c r="E42" t="n">
         <v>0.6374</v>
@@ -2656,7 +2656,7 @@
         <v>0.951</v>
       </c>
       <c r="G42" t="n">
-        <v>5.51016</v>
+        <v>5.4837875</v>
       </c>
       <c r="H42" t="n">
         <v>0.21356001</v>
@@ -2665,7 +2665,7 @@
         <v>0.0631</v>
       </c>
       <c r="J42" t="n">
-        <v>26.010202</v>
+        <v>25.885714</v>
       </c>
       <c r="K42" t="n">
         <v>12.89</v>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>150.69</v>
+        <v>151.92</v>
       </c>
       <c r="E43" t="n">
         <v>0.34732</v>
@@ -2709,7 +2709,7 @@
         <v>0.947</v>
       </c>
       <c r="G43" t="n">
-        <v>5.9537735</v>
+        <v>6.002371</v>
       </c>
       <c r="H43" t="n">
         <v>0.16131</v>
@@ -2718,7 +2718,7 @@
         <v>0.07678</v>
       </c>
       <c r="J43" t="n">
-        <v>35.540096</v>
+        <v>35.74588</v>
       </c>
       <c r="K43" t="n">
         <v>27.19</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>130.15</v>
+        <v>130.55</v>
       </c>
       <c r="E44" t="n">
         <v>0.38997</v>
@@ -2762,7 +2762,7 @@
         <v>1.44</v>
       </c>
       <c r="G44" t="n">
-        <v>1.1229895</v>
+        <v>1.1264409</v>
       </c>
       <c r="H44" t="n">
         <v>0.09191000000000001</v>
@@ -2771,7 +2771,7 @@
         <v>0.0543</v>
       </c>
       <c r="J44" t="n">
-        <v>12.860671</v>
+        <v>12.900198</v>
       </c>
       <c r="K44" t="n">
         <v>8.859999999999999</v>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>292.7175</v>
+        <v>295.84</v>
       </c>
       <c r="E45" t="n">
         <v>0.97634</v>
@@ -2815,7 +2815,7 @@
         <v>0.676</v>
       </c>
       <c r="G45" t="n">
-        <v>23.899208</v>
+        <v>24.154146</v>
       </c>
       <c r="H45" t="n">
         <v>0.49687</v>
@@ -2824,7 +2824,7 @@
         <v>0.085260004</v>
       </c>
       <c r="J45" t="n">
-        <v>57.171387</v>
+        <v>57.78125</v>
       </c>
       <c r="K45" t="n">
         <v>13.93</v>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>37.375</v>
+        <v>37.34</v>
       </c>
       <c r="E46" t="n">
         <v>0.35011</v>
@@ -2868,7 +2868,7 @@
         <v>1.337</v>
       </c>
       <c r="G46" t="n">
-        <v>2.1719549</v>
+        <v>2.169921</v>
       </c>
       <c r="H46" t="n">
         <v>0.18035999</v>
@@ -2877,7 +2877,7 @@
         <v>0.05787</v>
       </c>
       <c r="J46" t="n">
-        <v>12.755973</v>
+        <v>12.744027</v>
       </c>
       <c r="K46" t="n">
         <v>17.08</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>204.475</v>
+        <v>204.07</v>
       </c>
       <c r="E47" t="n">
         <v>0.51641</v>
@@ -2921,7 +2921,7 @@
         <v>1.048</v>
       </c>
       <c r="G47" t="n">
-        <v>7.0948997</v>
+        <v>7.080847</v>
       </c>
       <c r="H47" t="n">
         <v>0.2524</v>
@@ -2930,7 +2930,7 @@
         <v>0.07632</v>
       </c>
       <c r="J47" t="n">
-        <v>33.30212</v>
+        <v>33.236156</v>
       </c>
       <c r="K47" t="n">
         <v>28.51</v>
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>192.87</v>
+        <v>194.48</v>
       </c>
       <c r="E48" t="n">
-        <v>0.15221</v>
+        <v>0.10081</v>
       </c>
       <c r="F48" t="n">
-        <v>0.839</v>
+        <v>0.895</v>
       </c>
       <c r="G48" t="n">
-        <v>19.978247</v>
+        <v>17.889797</v>
       </c>
       <c r="H48" t="n">
-        <v>0.23378</v>
+        <v>0.21162</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0357</v>
+        <v>0.0372</v>
       </c>
       <c r="J48" t="n">
-        <v>108.9661</v>
+        <v>109.8757</v>
       </c>
       <c r="K48" t="n">
         <v>142.48</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>228.8595</v>
+        <v>231.68</v>
       </c>
       <c r="E49" t="n">
         <v>1.66032</v>
@@ -3027,7 +3027,7 @@
         <v>1.004</v>
       </c>
       <c r="G49" t="n">
-        <v>3.864499</v>
+        <v>3.9121256</v>
       </c>
       <c r="H49" t="n">
         <v>0.14845</v>
@@ -3036,7 +3036,7 @@
         <v>0.06975999500000001</v>
       </c>
       <c r="J49" t="n">
-        <v>105.4652</v>
+        <v>107.75813</v>
       </c>
       <c r="K49" t="n">
         <v>3.79</v>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>104.2</v>
+        <v>103.73</v>
       </c>
       <c r="E50" t="n">
         <v>1.71503</v>
@@ -3080,7 +3080,7 @@
         <v>0.417</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0366678</v>
+        <v>2.0274816</v>
       </c>
       <c r="H50" t="n">
         <v>0.10421</v>
@@ -3089,7 +3089,7 @@
         <v>0.028900001</v>
       </c>
       <c r="J50" t="n">
-        <v>20.11583</v>
+        <v>20.025097</v>
       </c>
       <c r="K50" t="n">
         <v>2.39</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>361.935</v>
+        <v>363.055</v>
       </c>
       <c r="E51" t="n">
         <v>6.44739</v>
@@ -3133,7 +3133,7 @@
         <v>1.68</v>
       </c>
       <c r="G51" t="n">
-        <v>212.67496</v>
+        <v>213.43622</v>
       </c>
       <c r="H51" t="n">
         <v>2.8750799</v>
@@ -3142,7 +3142,7 @@
         <v>0.27267998</v>
       </c>
       <c r="J51" t="n">
-        <v>65.53625</v>
+        <v>65.770836</v>
       </c>
       <c r="K51" t="n">
         <v>5.89</v>
@@ -3163,42 +3163,42 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KLA Corporation</t>
+          <t>Mondelez International, Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>781.67</v>
+        <v>65.87</v>
       </c>
       <c r="E52" t="n">
-        <v>1.52049</v>
+        <v>0.78051</v>
       </c>
       <c r="F52" t="n">
-        <v>2.544</v>
+        <v>0.606</v>
       </c>
       <c r="G52" t="n">
-        <v>25.81132</v>
+        <v>3.3077235</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04097</v>
+        <v>0.13302</v>
       </c>
       <c r="I52" t="n">
-        <v>0.19229001</v>
+        <v>0.03691</v>
       </c>
       <c r="J52" t="n">
-        <v>28.455406</v>
+        <v>24.48699</v>
       </c>
       <c r="K52" t="n">
-        <v>11.68</v>
+        <v>13.12</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
         <v>4</v>
@@ -3216,42 +3216,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc.</t>
+          <t>KLA Corporation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>65.92</v>
+        <v>790.29</v>
       </c>
       <c r="E53" t="n">
-        <v>0.78051</v>
+        <v>1.52049</v>
       </c>
       <c r="F53" t="n">
-        <v>0.606</v>
+        <v>2.544</v>
       </c>
       <c r="G53" t="n">
-        <v>3.310234</v>
+        <v>26.095957</v>
       </c>
       <c r="H53" t="n">
-        <v>0.13302</v>
+        <v>1.04097</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03691</v>
+        <v>0.19229001</v>
       </c>
       <c r="J53" t="n">
-        <v>24.505575</v>
+        <v>28.737818</v>
       </c>
       <c r="K53" t="n">
-        <v>13.12</v>
+        <v>11.68</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1181.595</v>
+        <v>1192.02</v>
       </c>
       <c r="E54" t="n">
         <v>0.7251300000000001</v>
@@ -3292,7 +3292,7 @@
         <v>1.204</v>
       </c>
       <c r="G54" t="n">
-        <v>20.933193</v>
+        <v>21.117884</v>
       </c>
       <c r="H54" t="n">
         <v>0.40842</v>
@@ -3301,7 +3301,7 @@
         <v>0.13789</v>
       </c>
       <c r="J54" t="n">
-        <v>55.709335</v>
+        <v>56.174366</v>
       </c>
       <c r="K54" t="n">
         <v>14.49</v>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>43.75</v>
+        <v>44.26</v>
       </c>
       <c r="E55" t="n">
         <v>0.45383</v>
@@ -3345,7 +3345,7 @@
         <v>4.949</v>
       </c>
       <c r="G55" t="n">
-        <v>2.2767487</v>
+        <v>2.303289</v>
       </c>
       <c r="H55" t="n">
         <v>0.07852000000000001</v>
@@ -3354,7 +3354,7 @@
         <v>0.06303</v>
       </c>
       <c r="J55" t="n">
-        <v>30.381943</v>
+        <v>30.736109</v>
       </c>
       <c r="K55" t="n">
         <v>30.52</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>86.995</v>
+        <v>87.34</v>
       </c>
       <c r="E56" t="n">
         <v>1.13968</v>
@@ -3398,7 +3398,7 @@
         <v>1.499</v>
       </c>
       <c r="G56" t="n">
-        <v>15.048434</v>
+        <v>15.108111</v>
       </c>
       <c r="H56" t="n">
         <v>0.23716</v>
@@ -3407,7 +3407,7 @@
         <v>0.05975</v>
       </c>
       <c r="J56" t="n">
-        <v>65.409775</v>
+        <v>65.66916999999999</v>
       </c>
       <c r="K56" t="n">
         <v>31.58</v>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>106.52</v>
+        <v>109.11</v>
       </c>
       <c r="E57" t="n">
         <v>1.30789</v>
@@ -3451,7 +3451,7 @@
         <v>1.369</v>
       </c>
       <c r="G57" t="n">
-        <v>6.9209275</v>
+        <v>7.089208</v>
       </c>
       <c r="H57" t="n">
         <v>0.32654998</v>
@@ -3460,7 +3460,7 @@
         <v>0.121429995</v>
       </c>
       <c r="J57" t="n">
-        <v>22.378149</v>
+        <v>22.922268</v>
       </c>
       <c r="K57" t="n">
         <v>10.75</v>
@@ -3481,51 +3481,51 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Automatic Data Processing, Inc.</t>
+          <t>Axon Enterprise, Inc.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>322.245</v>
+        <v>742.75</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7457699999999999</v>
+        <v>0.8008</v>
       </c>
       <c r="F58" t="n">
-        <v>1.015</v>
+        <v>2.825</v>
       </c>
       <c r="G58" t="n">
-        <v>22.361042</v>
+        <v>22.623434</v>
       </c>
       <c r="H58" t="n">
-        <v>0.76289004</v>
+        <v>0.15166001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.055710003</v>
+        <v>0.00677</v>
       </c>
       <c r="J58" t="n">
-        <v>32.91573</v>
+        <v>178.54568</v>
       </c>
       <c r="K58" t="n">
-        <v>10.85</v>
+        <v>8.25</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
       <c r="M58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
         <v>4</v>
@@ -3534,51 +3534,51 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Axon Enterprise, Inc.</t>
+          <t>Automatic Data Processing, Inc.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>737.84</v>
+        <v>322.8</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8008</v>
+        <v>0.7457699999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>2.825</v>
+        <v>1.015</v>
       </c>
       <c r="G59" t="n">
-        <v>22.47388</v>
+        <v>22.399555</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15166001</v>
+        <v>0.76289004</v>
       </c>
       <c r="I59" t="n">
-        <v>0.00677</v>
+        <v>0.055710003</v>
       </c>
       <c r="J59" t="n">
-        <v>177.3654</v>
+        <v>33.006134</v>
       </c>
       <c r="K59" t="n">
-        <v>8.25</v>
+        <v>10.85</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>4</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>290.37</v>
+        <v>292.4</v>
       </c>
       <c r="E60" t="n">
         <v>0.62682</v>
@@ -3610,7 +3610,7 @@
         <v>1.472</v>
       </c>
       <c r="G60" t="n">
-        <v>7.023608</v>
+        <v>7.0727105</v>
       </c>
       <c r="H60" t="n">
         <v>0.23974001</v>
@@ -3619,7 +3619,7 @@
         <v>0.04676</v>
       </c>
       <c r="J60" t="n">
-        <v>30.565262</v>
+        <v>30.778946</v>
       </c>
       <c r="K60" t="n">
         <v>9.58</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>521.775</v>
+        <v>517.16</v>
       </c>
       <c r="E61" t="n">
         <v>0.7315900000000001</v>
@@ -3663,7 +3663,7 @@
         <v>1.16</v>
       </c>
       <c r="G61" t="n">
-        <v>29.09418</v>
+        <v>28.836845</v>
       </c>
       <c r="H61" t="n">
         <v>0.59330004</v>
@@ -3672,7 +3672,7 @@
         <v>0.22982</v>
       </c>
       <c r="J61" t="n">
-        <v>48.3125</v>
+        <v>47.840885</v>
       </c>
       <c r="K61" t="n">
         <v>36.16</v>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>103.9371</v>
+        <v>104.79</v>
       </c>
       <c r="E62" t="n">
         <v>0.54842</v>
@@ -3716,7 +3716,7 @@
         <v>1.363</v>
       </c>
       <c r="G62" t="n">
-        <v>40.727703</v>
+        <v>41.061913</v>
       </c>
       <c r="H62" t="n">
         <v>2.05906</v>
@@ -3725,7 +3725,7 @@
         <v>0.13325</v>
       </c>
       <c r="J62" t="n">
-        <v>42.77247</v>
+        <v>43.123455</v>
       </c>
       <c r="K62" t="n">
         <v>90.17</v>
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>113.1273</v>
+        <v>113.51</v>
       </c>
       <c r="E63" t="n">
         <v>0.08173999999999999</v>
@@ -3769,7 +3769,7 @@
         <v>2.803</v>
       </c>
       <c r="G63" t="n">
-        <v>3.1584804</v>
+        <v>3.1691654</v>
       </c>
       <c r="H63" t="n">
         <v>0.03904</v>
@@ -3778,7 +3778,7 @@
         <v>0.0256</v>
       </c>
       <c r="J63" t="n">
-        <v>82.57467</v>
+        <v>82.85402000000001</v>
       </c>
       <c r="K63" t="n">
         <v>22.67</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>276.295</v>
+        <v>275.01</v>
       </c>
       <c r="E64" t="n">
         <v>9.24456</v>
@@ -3822,7 +3822,7 @@
         <v>1.17</v>
       </c>
       <c r="G64" t="n">
-        <v>23.93408</v>
+        <v>23.822767</v>
       </c>
       <c r="H64" t="n">
         <v>1.0567299</v>
@@ -3831,7 +3831,7 @@
         <v>0.07037</v>
       </c>
       <c r="J64" t="n">
-        <v>25.16348</v>
+        <v>25.06928</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>98.45</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>0.30891</v>
@@ -3875,7 +3875,7 @@
         <v>3.134</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2632184</v>
+        <v>2.2551725</v>
       </c>
       <c r="H65" t="n">
         <v>0.101009995</v>
@@ -3884,7 +3884,7 @@
         <v>0.055219997</v>
       </c>
       <c r="J65" t="n">
-        <v>23.552631</v>
+        <v>23.4689</v>
       </c>
       <c r="K65" t="n">
         <v>2.22</v>
@@ -3905,42 +3905,42 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PayPal Holdings, Inc.</t>
+          <t>Shopify Inc.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>72.3</v>
+        <v>106.43</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6604099999999999</v>
+        <v>0.10298</v>
       </c>
       <c r="F66" t="n">
-        <v>1.3</v>
+        <v>3.706</v>
       </c>
       <c r="G66" t="n">
-        <v>3.4947798</v>
+        <v>12.491783</v>
       </c>
       <c r="H66" t="n">
-        <v>0.22198999</v>
+        <v>0.16145</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04448</v>
+        <v>0.07078</v>
       </c>
       <c r="J66" t="n">
-        <v>16.247192</v>
+        <v>86.52846</v>
       </c>
       <c r="K66" t="n">
-        <v>15.09</v>
+        <v>-714.78</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>3</v>
@@ -3958,42 +3958,42 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Shopify Inc.</t>
+          <t>PayPal Holdings, Inc.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>107.575</v>
+        <v>72.61</v>
       </c>
       <c r="E67" t="n">
-        <v>0.10298</v>
+        <v>0.6604099999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>3.706</v>
+        <v>1.3</v>
       </c>
       <c r="G67" t="n">
-        <v>12.626173</v>
+        <v>3.5097642</v>
       </c>
       <c r="H67" t="n">
-        <v>0.16145</v>
+        <v>0.22198999</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07078</v>
+        <v>0.04448</v>
       </c>
       <c r="J67" t="n">
-        <v>87.45934</v>
+        <v>16.316854</v>
       </c>
       <c r="K67" t="n">
-        <v>-714.78</v>
+        <v>15.09</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>199.37</v>
+        <v>205.18</v>
       </c>
       <c r="E68" t="n">
         <v>0.06278</v>
@@ -4034,7 +4034,7 @@
         <v>1.716</v>
       </c>
       <c r="G68" t="n">
-        <v>10.067666</v>
+        <v>10.361056</v>
       </c>
       <c r="H68" t="n">
         <v>0.04336</v>
@@ -4043,7 +4043,7 @@
         <v>0.01424</v>
       </c>
       <c r="J68" t="n">
-        <v>252.36708</v>
+        <v>256.47498</v>
       </c>
       <c r="K68" t="n">
         <v>-516</v>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>88.79000000000001</v>
+        <v>88.56</v>
       </c>
       <c r="E69" t="n">
         <v>1.2739</v>
@@ -4087,7 +4087,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>4.820304</v>
+        <v>4.8078175</v>
       </c>
       <c r="H69" t="n">
         <v>0.17027001</v>
@@ -4096,7 +4096,7 @@
         <v>0.05341</v>
       </c>
       <c r="J69" t="n">
-        <v>25.811047</v>
+        <v>25.744184</v>
       </c>
       <c r="K69" t="n">
         <v>10.48</v>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>35.615</v>
+        <v>35.59</v>
       </c>
       <c r="E70" t="n">
         <v>1.13542</v>
@@ -4140,7 +4140,7 @@
         <v>0.645</v>
       </c>
       <c r="G70" t="n">
-        <v>1.5391763</v>
+        <v>1.5380958</v>
       </c>
       <c r="H70" t="n">
         <v>0.18049</v>
@@ -4149,7 +4149,7 @@
         <v>0.05451</v>
       </c>
       <c r="J70" t="n">
-        <v>8.772168000000001</v>
+        <v>8.76601</v>
       </c>
       <c r="K70" t="n">
         <v>5.64</v>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>44.525</v>
+        <v>44.26</v>
       </c>
       <c r="E71" t="n">
         <v>1.74861</v>
@@ -4193,7 +4193,7 @@
         <v>1.086</v>
       </c>
       <c r="G71" t="n">
-        <v>1.6282089</v>
+        <v>1.6185181</v>
       </c>
       <c r="H71" t="n">
         <v>0.10099</v>
@@ -4202,7 +4202,7 @@
         <v>0.02755</v>
       </c>
       <c r="J71" t="n">
-        <v>16.552044</v>
+        <v>16.453531</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>242.2</v>
+        <v>241.21</v>
       </c>
       <c r="E72" t="n">
         <v>1.99152</v>
@@ -4246,7 +4246,7 @@
         <v>1.161</v>
       </c>
       <c r="G72" t="n">
-        <v>4.508059</v>
+        <v>4.4896326</v>
       </c>
       <c r="H72" t="n">
         <v>0.19351</v>
@@ -4255,7 +4255,7 @@
         <v>0.055999998</v>
       </c>
       <c r="J72" t="n">
-        <v>23.675465</v>
+        <v>23.532684</v>
       </c>
       <c r="K72" t="n">
         <v>5.28</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>311.91</v>
+        <v>313.1</v>
       </c>
       <c r="E73" t="n">
         <v>31.78837</v>
@@ -4299,7 +4299,7 @@
         <v>1.268</v>
       </c>
       <c r="G73" t="n">
-        <v>354.8464</v>
+        <v>356.20023</v>
       </c>
       <c r="H73" t="n">
         <v>4.68222</v>
@@ -4308,7 +4308,7 @@
         <v>0.16698</v>
       </c>
       <c r="J73" t="n">
-        <v>45.936672</v>
+        <v>46.11193</v>
       </c>
       <c r="K73" t="n">
         <v>10.06</v>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>272.025</v>
+        <v>273.84</v>
       </c>
       <c r="E74" t="n">
         <v>0.37215</v>
@@ -4352,7 +4352,7 @@
         <v>1.901</v>
       </c>
       <c r="G74" t="n">
-        <v>8.020078</v>
+        <v>8.073589</v>
       </c>
       <c r="H74" t="n">
         <v>0.06146</v>
@@ -4361,7 +4361,7 @@
         <v>0.01812</v>
       </c>
       <c r="J74" t="n">
-        <v>140.21907</v>
+        <v>141.15463</v>
       </c>
       <c r="K74" t="n">
         <v>4.38</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>72.63</v>
+        <v>72.315</v>
       </c>
       <c r="E75" t="n">
         <v>1.63558</v>
@@ -4405,7 +4405,7 @@
         <v>0.796</v>
       </c>
       <c r="G75" t="n">
-        <v>2.114472</v>
+        <v>2.1053016</v>
       </c>
       <c r="H75" t="n">
         <v>0.102589995</v>
@@ -4414,7 +4414,7 @@
         <v>0.02172</v>
       </c>
       <c r="J75" t="n">
-        <v>21.361763</v>
+        <v>21.269117</v>
       </c>
       <c r="K75" t="n">
         <v>2.02</v>
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>114.92</v>
+        <v>116.29</v>
       </c>
       <c r="E76" t="n">
         <v>0.64364</v>
@@ -4458,7 +4458,7 @@
         <v>2.737</v>
       </c>
       <c r="G76" t="n">
-        <v>13.590349</v>
+        <v>13.752365</v>
       </c>
       <c r="H76" t="n">
         <v>0.06476</v>
@@ -4467,7 +4467,7 @@
         <v>0.00368</v>
       </c>
       <c r="J76" t="n">
-        <v>244.51064</v>
+        <v>247.42554</v>
       </c>
       <c r="K76" t="n">
         <v>7.68</v>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>72.8001</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E77" t="n">
         <v>0.97515</v>
@@ -4511,7 +4511,7 @@
         <v>0.977</v>
       </c>
       <c r="G77" t="n">
-        <v>3.6280327</v>
+        <v>3.5806837</v>
       </c>
       <c r="H77" t="n">
         <v>0.26444</v>
@@ -4520,7 +4520,7 @@
         <v>0.05867</v>
       </c>
       <c r="J77" t="n">
-        <v>15.294138</v>
+        <v>15.094537</v>
       </c>
       <c r="K77" t="n">
         <v>5.2</v>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>420.83</v>
+        <v>423.49</v>
       </c>
       <c r="E78" t="n">
         <v>4.65632</v>
@@ -4564,7 +4564,7 @@
         <v>0.363</v>
       </c>
       <c r="G78" t="n">
-        <v>3.6357117</v>
+        <v>3.6586924</v>
       </c>
       <c r="H78" t="n">
         <v>0.33116</v>
@@ -4573,7 +4573,7 @@
         <v>0.05639</v>
       </c>
       <c r="J78" t="n">
-        <v>11.745185</v>
+        <v>11.819425</v>
       </c>
       <c r="K78" t="n">
         <v>2.53</v>
@@ -4608,7 +4608,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>33.925</v>
+        <v>33.87</v>
       </c>
       <c r="E79" t="n">
         <v>0.7641800000000001</v>
@@ -4617,7 +4617,7 @@
         <v>0.474</v>
       </c>
       <c r="G79" t="n">
-        <v>1.8847222</v>
+        <v>1.8816667</v>
       </c>
       <c r="H79" t="n">
         <v>0.06126</v>
@@ -4626,7 +4626,7 @@
         <v>0.04058</v>
       </c>
       <c r="J79" t="n">
-        <v>30.840908</v>
+        <v>30.790907</v>
       </c>
       <c r="K79" t="n">
         <v>4.5</v>

--- a/nasdaq100.xlsx
+++ b/nasdaq100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,523 +509,507 @@
           <t>B-Score</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Moat</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Total(12)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMAT</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Applied Materials, Inc.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>165.73</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3302</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.070996</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36372003</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.15880999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.161798</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>31.85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PDD</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PDD Holdings Inc.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>117.38</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03385</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.206</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5215544</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44924</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15886</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.136622</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1334.46</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAYX</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Paychex, Inc.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>157.67</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20981</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.393</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.795608</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.44254002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11643</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.779625</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.29</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>458.17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32626</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.372</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.581294</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3361</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.14581999</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>35.462074</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.29</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CTSH</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cognizant Technology Solutions Corporation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>80.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07913000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.215</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6799245</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16605</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.10094</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.050526</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.04</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ASML</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ASML Holding N.V.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>748.76</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21033</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.519</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.7842</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.55618</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15335</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.216303</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.49</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CTAS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cintas Corporation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>222.87</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.58617</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.721</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>19.591244</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.40296</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.15531999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>51.83023</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>20.53</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CDW Corporation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>188.1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.72795</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.323</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.66387</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48707</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07545</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>23.308552</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AZN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AstraZeneca PLC</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>69.92</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7711199999999999</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.897</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6407826</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.19793</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08158</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.193548</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FANG</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Diamondback Energy, Inc.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>138.35</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.33594</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0330949</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07135</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.603856</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.32</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1034,51 +1018,49 @@
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Alphabet Inc.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>165.32</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08254</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.768</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.820102</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.34789002</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.16896999</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.450893</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>419.37</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1087,104 +1069,100 @@
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANSS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ANSYS, Inc.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.13932</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.657</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.922464</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.102299996</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.25926</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Alphabet Inc.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>163.98</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08254</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.768</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.772927</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34789002</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16896999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.321787</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>419.37</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1193,316 +1171,304 @@
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FAST</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fastenal Company</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>81.92</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13435</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.277</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>12.734338</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.32351002</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.20121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.96</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>206.85</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LIN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Linde plc</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>459.85</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.60555</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9389999999999999</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6984773</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17013</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06963</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.322464</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.65</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NXPI</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NXP Semiconductors N.V.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>210.08</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.21164</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.085</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.7049747</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25441998</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.087629996</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22.884531</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>8.720000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SNPS</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Synopsys, Inc.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>515.61</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07147000000000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.681</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8.567939000000001</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15951</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06647</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.121685</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.56</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ODFL</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Old Dominion Freight Line, Inc.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>169.6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01416</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.318</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.486364</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26593</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.16778</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.81989</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7283.01</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LRCX</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Lam Research Corporation</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>84.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.47148</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.452</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>11.370565</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.53138</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.17291</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>23.479109</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1511,316 +1477,304 @@
         <v>0</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSX</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CSX Corporation</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>31.23</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.62012</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.883</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8209324</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26121</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07445</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.589287</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Costco Wholesale Corporation</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1036.82</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31431</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>17.987543</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.32894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.087349996</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.597305</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CPRT</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Copart, Inc.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>61.62</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01434</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.888</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.170953</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.19184999</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.12133</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>41.355705</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.39</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PepsiCo, Inc.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>131.8</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.61849</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.834</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>9.840961999999999</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.49927</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08858000000000001</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.382353</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HON</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Honeywell International Inc.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>225.06</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.88514</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.253</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.282791</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32676998</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07409</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.839264</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ABNB</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Airbnb, Inc.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>132.13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.28726</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.273</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>10.304945</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06276</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>33.535534</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>18.29</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1829,104 +1783,100 @@
         <v>0</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>QUALCOMM Incorporated</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CTAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>153.82</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.52737</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.733</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.1022735</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.42205003</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13428001</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.695919</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ROST</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Ross Stores, Inc.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>154.24</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.03144</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.205610999999999</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.40282002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.11066</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.405064</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.79</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1935,210 +1885,202 @@
         <v>0</v>
       </c>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADBE</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Adobe Inc.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>417.61</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5011800000000001</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.185</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>13.872703</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.47284</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.17194</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>27.546833</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADI</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Analog Devices, Inc.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>224.49</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21725</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1747985</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04429</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02616</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.95193</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Apple Inc.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>206.86</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.46994</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.821</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.26705</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.38015</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.23809999</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.27145</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>29.06</v>
+        <v>0</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Tesla, Inc.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>CCEP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>343.82</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.17407</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.996</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>14.830055</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.087740004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03724</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.46858</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>22.17</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2147,263 +2089,253 @@
         <v>0</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TXN</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Texas Instruments Incorporated</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>188.71</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.78313</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5.258</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10.456006</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29189</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.10038</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.740532</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ROP</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Roper Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>578.21</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3878799999999999</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.233855</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08094999999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04156</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.657784</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MELI</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MercadoLibre, Inc.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>2579.21</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.55016</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.203</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>26.131018</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.49106997</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07739</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>63.293495</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CDNS</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Cadence Design Systems, Inc.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>320.55</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.51864</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3.074</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>18.324472</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.25921</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.12727</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.35786400000001</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>18.09</v>
+        <v>0</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>REGN</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Regeneron Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>614.79</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09204000000000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.927</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2154355</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15961</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06909999999999999</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.623634</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>72.3</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2412,157 +2344,151 @@
         <v>0</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NVIDIA Corporation</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>134.38</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12946</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.462513</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.1917701</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.57417</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.707485</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>329.77</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLTR</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Palantir Technologies Inc.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>125.59</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04432000000000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.494</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>54.628098</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12357</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.043920003</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>546.04346</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>34.57</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Meta Platforms, Inc.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>637.1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.26763</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.662</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.687293</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.39835</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.17879999</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.876999</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.03</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2571,160 +2497,154 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KHC</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>The Kraft Heinz Company</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4355</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.307</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.67127013</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0535</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.037520003</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>12.739725</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Cisco Systems, Inc.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>63.42</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6374</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.951</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.4837875</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.21356001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0631</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.885714</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.89</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Electronic Arts Inc.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>151.92</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.34732</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.947</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.002371</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16131</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.74588</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>27.19</v>
+        <v>0</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
@@ -2733,48 +2653,46 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BIIB</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Biogen Inc.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>130.55</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.38997</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.1264409</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09191000000000001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0543</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>12.900198</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2783,157 +2701,151 @@
         <v>0</v>
       </c>
       <c r="N44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ADSK</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Autodesk, Inc.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>295.84</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.97634</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>24.154146</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.49687</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.085260004</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>57.78125</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.93</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BKR</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Baker Hughes Company</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>37.34</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.35011</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.337</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.169921</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.18035999</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05787</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.744027</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>17.08</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Amazon.com, Inc.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>204.07</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.51641</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.048</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>7.080847</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2524</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07632</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>33.236156</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>28.51</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2942,54 +2854,52 @@
         <v>0</v>
       </c>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PANW</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Palo Alto Networks, Inc.</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>194.48</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.10081</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>17.889797</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.21162</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0372</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>109.8757</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>142.48</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -2998,154 +2908,148 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AVGO</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Broadcom Inc.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>GFS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>231.68</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.66032</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.004</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.9121256</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14845</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06975999500000001</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>107.75813</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AEP</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>American Electric Power Company, Inc.</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>103.73</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1.71503</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0274816</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.10421</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.028900001</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>20.025097</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>APP</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>AppLovin Corporation</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>363.055</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>6.44739</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>213.43622</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2.8750799</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.27267998</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>65.770836</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3157,154 +3061,148 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MDLZ</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mondelez International, Inc.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>65.87</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.78051</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3077235</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13302</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03691</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>24.48699</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KLAC</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>KLA Corporation</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>790.29</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.52049</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2.544</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>26.095957</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04097</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.19229001</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>28.737818</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Netflix, Inc.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>1192.02</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7251300000000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.204</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>21.117884</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.40842</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.13789</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>56.174366</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>14.49</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3313,51 +3211,49 @@
         <v>0</v>
       </c>
       <c r="N54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ON Semiconductor Corporation</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>44.26</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.45383</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4.949</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.303289</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07852000000000001</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06303</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>30.736109</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>30.52</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3366,319 +3262,307 @@
         <v>0</v>
       </c>
       <c r="N55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DXCM</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DexCom, Inc.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>87.34</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.13968</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.499</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>15.108111</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.23716</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05975</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>65.66916999999999</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>31.58</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GILD</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Gilead Sciences, Inc.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>109.11</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.30789</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.369</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>7.089208</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.32654998</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.121429995</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>22.922268</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AXON</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Axon Enterprise, Inc.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>742.75</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8008</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.825</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>22.623434</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.15166001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00677</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>178.54568</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Automatic Data Processing, Inc.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>322.8</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7457699999999999</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.015</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>22.399555</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.76289004</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.055710003</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>33.006134</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>10.85</v>
+        <v>0</v>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CEG</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Constellation Energy Corporation</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>292.4</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.62682</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.472</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>7.0727105</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.23974001</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04676</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>30.778946</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>9.58</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
       </c>
       <c r="N60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IDXX</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>IDEXX Laboratories, Inc.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>517.16</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7315900000000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>28.836845</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.59330004</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.22982</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>47.840885</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>36.16</v>
+        <v>0</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
@@ -3687,51 +3571,49 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FTNT</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fortinet, Inc.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>MRVL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>104.79</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.54842</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.363</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>41.061913</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.05906</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.13325</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>43.123455</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>90.17</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -3740,48 +3622,46 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Advanced Micro Devices, Inc.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>MELI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>113.51</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08173999999999999</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.803</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>3.1691654</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03904</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0256</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>82.85402000000001</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>22.67</v>
+        <v>0</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3790,104 +3670,100 @@
         <v>0</v>
       </c>
       <c r="N63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AMGN</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Amgen Inc.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>275.01</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>9.24456</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>23.822767</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.0567299</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.07037</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>25.06928</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
       </c>
       <c r="M64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Micron Technology, Inc.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>98.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.30891</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3.134</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2551725</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.101009995</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.055219997</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>23.4689</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3896,51 +3772,49 @@
         <v>0</v>
       </c>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SHOP</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Shopify Inc.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>106.43</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.10298</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.706</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>12.491783</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.16145</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07078</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>86.52846</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-714.78</v>
+        <v>0</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -3952,48 +3826,46 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PYPL</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PayPal Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>72.61</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6604099999999999</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>3.5097642</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22198999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04448</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>16.316854</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>15.09</v>
+        <v>0</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -4002,51 +3874,49 @@
         <v>0</v>
       </c>
       <c r="N67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DASH</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DoorDash, Inc.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>MSTR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>205.18</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06278</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.716</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>10.361056</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.04336</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01424</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>256.47498</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-516</v>
+        <v>0</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -4055,51 +3925,49 @@
         <v>0</v>
       </c>
       <c r="N68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CCEP</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Coca-Cola Europacific Partners PLC</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>88.56</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1.2739</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8149999999999999</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>4.8078175</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.17027001</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.05341</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>25.744184</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>10.48</v>
+        <v>0</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -4108,51 +3976,49 @@
         <v>0</v>
       </c>
       <c r="N69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CMCSA</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Comcast Corporation</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>35.59</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1.13542</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.645</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.5380958</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.18049</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05451</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>8.76601</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -4161,104 +4027,100 @@
         <v>0</v>
       </c>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EXC</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Exelon Corporation</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>44.26</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1.74861</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.086</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.6185181</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.10099</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02755</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>16.453531</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>T-Mobile US, Inc.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>241.21</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1.99152</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.161</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>4.4896326</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.19351</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.055999998</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>23.532684</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4267,51 +4129,49 @@
         <v>0</v>
       </c>
       <c r="N72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VRSK</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Verisk Analytics, Inc.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>313.1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31.78837</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.268</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>356.20023</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>4.68222</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.16698</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>46.11193</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4323,48 +4183,46 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WDAY</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Workday, Inc.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>273.84</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.37215</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.901</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>8.073589</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06146</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01812</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>141.15463</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4373,104 +4231,100 @@
         <v>0</v>
       </c>
       <c r="N74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>XEL</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Xcel Energy Inc.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>72.315</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1.63558</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2.1053016</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.102589995</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02172</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>21.269117</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="L75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="b">
         <v>0</v>
       </c>
       <c r="N75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DDOG</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Datadog, Inc.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>116.29</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.64364</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2.737</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>13.752365</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06476</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.00368</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>247.42554</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>7.68</v>
+        <v>0</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -4479,51 +4333,49 @@
         <v>0</v>
       </c>
       <c r="N76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GEHC</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>GE HealthCare Technologies Inc.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>71.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.97515</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.977</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>3.5806837</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.26444</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05867</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>15.094537</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -4535,51 +4387,49 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHTR</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Charter Communications, Inc.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>423.49</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4.65632</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3.6586924</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.33116</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05639</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>11.819425</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="L78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
@@ -4588,48 +4438,46 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KDP</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Keurig Dr Pepper Inc.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>33.87</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7641800000000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.474</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.8816667</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06126</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04058</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>30.790907</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4638,10 +4486,1189 @@
         <v>0</v>
       </c>
       <c r="N79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PDD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TTWO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WDAY</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/nasdaq100.xlsx
+++ b/nasdaq100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,714 +506,738 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>B-Score</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Moat</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Total(12)</t>
+          <t>B-Score(9)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABNB</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Applied Materials, Inc.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>162.23</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3302</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.465</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.9216657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.36372003</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.15880999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19.71203</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>31.85</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>PDD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PDD Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>116.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.03385</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.206</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5163113499999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.44924</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.15886</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.024668</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1334.46</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANSS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASML Holding N.V.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>737.17</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.21033</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.519</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.524399</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.55618</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.15335</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>29.676731</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>55.49</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>452.57</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.32626</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.372</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.451963</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.3361</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.14581999</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>34.9745</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.29</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADI</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions Corporation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.07913000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.215</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.6468349</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.16605</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.10094</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>16.84</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>56.04</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADBE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paychex, Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>156.22</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.20981</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.393</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.668737</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.44254002</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.11643</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>32.478172</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>58.29</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AEP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CDW Corporation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>181.82</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.72795</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.323</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.307841</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.48707</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.07545</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>22.530361</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMGN</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ANSYS, Inc.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.13932</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.657</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4.8797836</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.102299996</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.06059</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>50.739643</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AstraZeneca PLC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.7711199999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.897</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.6317182</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.19793</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.08158</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.983936</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t>CTAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cintas Corporation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>221.05</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.58617</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.721</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>19.43126</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.40296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.15531999</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.287704</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>20.53</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Copart, Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>61.09</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.01434</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>7.888</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.109275</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.19184999</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.12133</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>82.39</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMAT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors N.V.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>205.35</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.21164</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.085</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.576526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.25441998</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.087629996</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.369282</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Old Dominion Freight Line, Inc.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>164.19</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.01416</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.318</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.215662</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.26593</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.16778</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>30.74719</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7283.01</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>APP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Diamondback Energy, Inc.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>136.31</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.33594</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.0178616</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.14668</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.07135</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.476990000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.32</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1222,100 +1246,104 @@
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fastenal Company</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.13435</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.277</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.321728</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.32351002</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.20121</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>206.85</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ASML</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lam Research Corporation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.47148</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.452</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11.168218</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.53138</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.17291</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>23.061281</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>23.12</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1324,202 +1352,210 @@
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AZN</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Honeywell International Inc.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>221.87</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.88514</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>8.16539</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.32676998</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.07409</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.502298</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADSK</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSX Corporation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.49</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.62012</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.883</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.7066994</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.26121</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.07445</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.14881</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AXON</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Costco Wholesale Corporation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1025.3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.31431</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.997</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>17.787687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.32894</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.087349996</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>59.88902</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BKNG</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alphabet Inc.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>168.56</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.08254</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5.9341664</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.34789002</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.16896999</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>18.791527</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>419.37</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1528,49 +1564,51 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BIIB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alphabet Inc.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>170.06</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.08254</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.986974</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.34789002</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.16896999</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>18.97991</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>419.37</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1579,254 +1617,260 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BKR</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PepsiCo, Inc.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>130.15</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.61849</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.834</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9.717763</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.49927</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.08858000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>19.167892</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CDNS</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Synopsys, Inc.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>501.46</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.07147000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.681</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>8.332807000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.15951</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.06647</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.271637</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>38.56</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AVGO</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Intuit Inc.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
+        <v>659.98</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.272</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>10.28599</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.17424999</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.08257</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>61.738075</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Linde plc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>455.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.60555</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.644572</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.17013</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.06963</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>33.007244</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>17.65</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CTAS</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lululemon athletica inc.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>317.56</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.36443</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.164</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8.906964</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.42417</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.21314</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+        <v>21.691256</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="b">
         <v>0</v>
       </c>
@@ -1834,151 +1878,157 @@
         <v>0</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHTR</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Kraft Heinz Company</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.4355</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.307</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.6407141</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.0535</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.037520003</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>12.159817</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
       <c r="N28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cadence Design Systems, Inc.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>317.55</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.51864</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.074</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>18.152975</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.25921</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.12727</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>80.59644</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>18.09</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CTSH</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Airbnb, Inc.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>127.52</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.28726</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.273</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>9.945406</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.3206</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.06276</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>32.365482</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>18.29</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1987,355 +2037,369 @@
         <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CEG</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Autodesk, Inc.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>292.93</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.97634</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>23.916557</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.49687</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.085260004</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>57.10136</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CCEP</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Baker Hughes Company</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>36.65</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.35011</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.1298234</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.18035999</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.05787</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>12.508533</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>17.08</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CMCSA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cisco Systems, Inc.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6374</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.951</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.4647646</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.21356001</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0631</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>25.795918</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.89</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CRWD</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Adobe Inc.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>414.03</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5011800000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.185</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>13.753778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.47284</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.17194</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>27.328714</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>202.09</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.46994</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>45.200176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.38015</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.23809999</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>31.429237</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>29.06</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CPRT</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Analog Devices, Inc.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>222.22</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.21725</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.1426957</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.04429</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.02616</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.99679999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CSGP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Biogen Inc.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.82</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.38997</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.0942569</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.09191000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>12.531621</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2344,103 +2408,107 @@
         <v>0</v>
       </c>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSX</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>QUALCOMM Incorporated</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>151.31</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.52737</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.733</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.0026975</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.42205003</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.13428001</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>15.4397955</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>14.45</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DDOG</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Electronic Arts Inc.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.34732</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.947</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.9462667</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.16131</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.07678</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.495285</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.19</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -2449,148 +2517,154 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DXCM</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Palantir Technologies Inc.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.58</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.04432000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.494</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>52.44889</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.12357</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.043920003</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>524.26086</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>34.57</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FANG</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>131.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.12946</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>40.666462</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.1917701</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.57417</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>44.829933</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>329.77</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ross Stores, Inc.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>152.68</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.03144</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.617</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>9.112503999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.40282002</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.11066</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.158226</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>40.79</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2599,151 +2673,157 @@
         <v>0</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FAST</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Texas Instruments Incorporated</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>185.42</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.78313</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.258</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10.273714</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.29189</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.10038</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>35.117424</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>10.51</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FTNT</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Roper Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>572.8099999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.3878799999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.462</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.2036533</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.04156</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>41.328285</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DASH</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tesla, Inc.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>334.62</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.17407</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.996</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.433229</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.087740004</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.03724</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>192.31035</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>22.17</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2752,49 +2832,51 @@
         <v>0</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EXC</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Regeneron Pharmaceuticals, Inc.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>604.62</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.09204000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.927</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.1787872</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.15961</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.36128</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>72.3</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2803,49 +2885,51 @@
         <v>0</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GEHC</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Meta Platforms, Inc.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>635.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.26763</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2.662</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>8.665476</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.39835</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.17879999</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>24.814526</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>97.03</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2854,103 +2938,103 @@
         <v>0</v>
       </c>
       <c r="N47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GILD</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+          <t>MELI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MercadoLibre, Inc.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2601.97</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1.55016</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1.203</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>26.361609</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.49106997</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.07739</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>64.10372</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GFS</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>O'Reilly Automotive, Inc.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
+        <v>1370.49</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>-57.66114</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.13728</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>33.55754</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -2959,46 +3043,48 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HON</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AppLovin Corporation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>358.35</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>6.44739</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>210.6702</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2.8750799</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.27267998</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>64.91848</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3010,151 +3096,153 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IDXX</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+          <t>AXON</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Axon Enterprise, Inc.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>735.38</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.8008</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.825</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>22.39895</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.15166001</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.00677</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>178.4903</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Constellation Energy Corporation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>287.11</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.62682</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1.472</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>6.944753</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.23974001</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.04676</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>30.222103</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>9.58</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KDP</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Booking Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
+        <v>5293.31</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1.217</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>-28.319191</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.17963</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>33.002743</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -3163,97 +3251,101 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ISRG</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Broadcom Inc.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>229.73</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1.66032</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.004</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.879198</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.14845</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.06975999500000001</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>106.356476</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KLAC</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Amazon.com, Inc.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>201.12</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.51641</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.048</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>6.978487</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.2524</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.07632</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>32.809135</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>28.51</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3262,154 +3354,154 @@
         <v>0</v>
       </c>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INTU</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Starbucks Corporation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
+        <v>82.98</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>-12.368461</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.08979999</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>30.174547</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KHC</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PACCAR Inc</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>94.33</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.8715900000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5.395</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.7477424</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.19899</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.06702</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
+        <v>14.314113</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
       </c>
       <c r="N57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LRCX</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Palo Alto Networks, Inc.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>181.26</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.11147</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.895</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>16.693682</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.21162</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.03658</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>104.17241</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>142.48</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
@@ -3418,47 +3510,47 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LIN</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The Trade Desk, Inc.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>74.47</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.1233</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1.811</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>13.468983</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.16878</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.0546</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
+        <v>90.81708</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="b">
         <v>0</v>
       </c>
@@ -3466,49 +3558,49 @@
         <v>0</v>
       </c>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LULU</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vertex Pharmaceuticals Incorporated</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>435.32</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.09997</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2.646</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>6.781108</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>-0.05644</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>0.11773</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>143.63</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3517,49 +3609,51 @@
         <v>0</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MAR</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Netflix, Inc.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1194.63</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.7251300000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1.204</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>21.164122</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.40842</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.13789</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>56.51041</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>14.49</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3568,49 +3662,51 @@
         <v>0</v>
       </c>
       <c r="N61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MRVL</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ON Semiconductor Corporation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>43.66</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.45383</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4.949</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2.272065</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.07852000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.06303</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>30.319443</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>30.52</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3619,152 +3715,156 @@
         <v>0</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MELI</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>American Electric Power Company, Inc.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>102.93</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1.71503</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2.0118449</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.10421</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.028900001</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>19.870657</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Automatic Data Processing, Inc.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>322.63</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.7457699999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1.015</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>22.38776</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.76289004</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.055710003</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>32.988754</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>10.85</v>
       </c>
       <c r="L64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MCHP</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Arm Holdings plc</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>130.45</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.05059</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5.199</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>20.162287</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.13054</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.06161</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
+        <v>176.28378</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="b">
         <v>0</v>
       </c>
@@ -3772,67 +3872,63 @@
         <v>0</v>
       </c>
       <c r="N65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KLA Corporation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>778.9400000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1.52049</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2.544</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>25.721172</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1.04097</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.19229001</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>28.32509</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>11.68</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
       </c>
       <c r="M66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3841,85 +3937,95 @@
           <t>MDLZ</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mondelez International, Inc.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.78051</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3.2770917</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.13302</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.03691</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>24.260223</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
       </c>
       <c r="M67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MSTR</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>IDEXX Laboratories, Inc.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>500.87</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.7315900000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>27.928514</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.59330004</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.22982</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>46.29113</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>36.16</v>
       </c>
       <c r="L68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
@@ -3928,100 +4034,104 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DexCom, Inc.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>84.89</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1.13968</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1.499</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>14.68431</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.23716</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.05975</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>63.827065</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
       <c r="L69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
       <c r="N69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MNST</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fortinet, Inc.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>102.84</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.54842</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1.363</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>40.297802</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2.05906</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.13325</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>42.320984</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>90.17</v>
       </c>
       <c r="L70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
@@ -4030,97 +4140,101 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NXPI</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Gilead Sciences, Inc.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>107.72</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1.30789</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1.369</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>6.9988956</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.32654998</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.121429995</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>22.63025</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORLY</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>T-Mobile US, Inc.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>240.76</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1.99152</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1.161</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>4.4812565</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.19351</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.055999998</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>23.534702</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4129,49 +4243,51 @@
         <v>0</v>
       </c>
       <c r="N72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Shopify Inc.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>102.32</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.10298</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3.706</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>12.009389</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.16145</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.07078</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>83.18698999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-714.78</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4183,46 +4299,48 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+          <t>CCEP</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Coca-Cola Europacific Partners PLC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>88.94</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1.2739</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>4.8284473</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.17027001</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.05341</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>25.705202</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4231,49 +4349,51 @@
         <v>0</v>
       </c>
       <c r="N74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ODFL</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Comcast Corporation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1.13542</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1.5169194</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.18049</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.05451</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>8.64532</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4282,100 +4402,104 @@
         <v>0</v>
       </c>
       <c r="N75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PCAR</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Amgen Inc.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>271.34</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>9.24456</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>23.504852</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1.0567299</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.07037</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>24.7573</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
       </c>
       <c r="M76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="b">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PLTR</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Advanced Micro Devices, Inc.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>112.06</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.08173999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2.803</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3.1286817</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.03904</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.0256</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>81.795616</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>22.67</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -4384,49 +4508,49 @@
         <v>0</v>
       </c>
       <c r="N77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CrowdStrike Holdings, Inc.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>434.74</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.2377</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1.766</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>32.85768</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>-0.00587</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0046900003</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-4.58</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -4435,49 +4559,51 @@
         <v>0</v>
       </c>
       <c r="N78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TEAM</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>WDAY</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Workday, Inc.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>268.54</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.37215</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1.901</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>7.9173303</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.06146</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.01812</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>137.01021</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4486,49 +4612,49 @@
         <v>0</v>
       </c>
       <c r="N79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANW</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>20.69</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.47129</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.9047182</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.18127</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.01092</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -4537,49 +4663,51 @@
         <v>0</v>
       </c>
       <c r="N80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PYPL</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+          <t>DASH</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DoorDash, Inc.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>204.77</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.06278</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1.716</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>10.340353</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.04336</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.01424</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>255.96251</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-516</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4588,151 +4716,153 @@
         <v>0</v>
       </c>
       <c r="N81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PDD</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Exelon Corporation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>44.19</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1.74861</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1.086</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1.6159583</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.10099</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.02755</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>16.42751</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PAYX</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Microchip Technology Incorporated</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>59.25</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.79545</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4.505018</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01598</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
       </c>
       <c r="M83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+          <t>GFS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GLOBALFOUNDRIES Inc.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>37.75</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.14688</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2.514</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1.8944147</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>-0.01652</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>0.02619</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -4741,49 +4871,49 @@
         <v>0</v>
       </c>
       <c r="N84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+          <t>MRVL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Marvell Technology, Inc.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>60.11</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.32346</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3.876814</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>-0.06264</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00026</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-1.93</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -4792,49 +4922,51 @@
         <v>0</v>
       </c>
       <c r="N85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>REGN</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Micron Technology, Inc.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>95.84</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.30891</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3.134</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2.2032182</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.101009995</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.055219997</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>22.92823</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -4843,101 +4975,101 @@
         <v>0</v>
       </c>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ROST</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Xcel Energy Inc.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>69.92</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1.63558</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2.035576</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.102589995</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.02172</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>20.564705</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="L87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
       </c>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ROP</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Intuitive Surgical, Inc.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
+        <v>547.0700000000001</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>4.979</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>11.461764</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.15958</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.08841</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
+        <v>79.98099499999999</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="b">
         <v>0</v>
       </c>
@@ -4945,49 +5077,51 @@
         <v>0</v>
       </c>
       <c r="N88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SHOP</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PayPal Holdings, Inc.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.6604099999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3.4633605</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.22198999</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.04448</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>16.101124</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>15.09</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -4996,49 +5130,51 @@
         <v>0</v>
       </c>
       <c r="N89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SBUX</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Verisk Analytics, Inc.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>312.33</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>31.78837</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1.268</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>355.32422</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>4.68222</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.16698</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>46.06637</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>10.06</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -5050,46 +5186,44 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Marriott International, Inc.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
+        <v>260.69</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>-22.62934</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.09397999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>29.657566</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -5101,47 +5235,47 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SNPS</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Monster Beverage Corporation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.03998</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>3.375</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>9.437631</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.20004</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.14239</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
+        <v>41.513157</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="b">
         <v>0</v>
       </c>
@@ -5152,100 +5286,102 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Atlassian Corporation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>209.17</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.89896</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1.262</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>40.209534</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>-0.34334</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.01928</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-3.44</v>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
       </c>
       <c r="N93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TTWO</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Charter Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>415.44</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>4.65632</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>3.5891454</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.33116</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.05639</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>11.588285</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="L94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
@@ -5254,47 +5390,47 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TTD</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CoStar Group, Inc.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.13085</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3.6577647</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.01474</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>0.0014300001</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
+        <v>264.14285</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="b">
         <v>0</v>
       </c>
@@ -5302,49 +5438,51 @@
         <v>0</v>
       </c>
       <c r="N95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VRSK</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GE HealthCare Technologies Inc.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>69.58</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.97515</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.977</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>3.4675572</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.26444</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.05867</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>14.617647</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5356,46 +5494,48 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TXN</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Datadog, Inc.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>113.69</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.64364</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2.737</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>13.444891</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.06476</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.00368</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>241.89362</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5404,49 +5544,51 @@
         <v>0</v>
       </c>
       <c r="N97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VRTX</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Keurig Dr Pepper Inc.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>33.59</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.7641800000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1.8661112</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.06126</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.04058</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>30.536364</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5455,49 +5597,49 @@
         <v>0</v>
       </c>
       <c r="N98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WDAY</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+          <t>MSTR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strategy Incorporated</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>402.69</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.24442</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3.326587</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>-0.29677</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.18825</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5509,13 +5651,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5524,31 +5660,37 @@
           <t>WBD</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Warner Bros. Discovery, Inc.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1.06412</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>0.836</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.6541441</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>-0.27281</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0050199996</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -5560,46 +5702,46 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>XEL</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Zscaler, Inc.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>248.72</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>0.7709</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1.202</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>23.943012</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>-0.0121</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.014090001</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-9.25</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -5608,49 +5750,49 @@
         <v>0</v>
       </c>
       <c r="N101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ZS</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+          <t>TTWO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Take-Two Interactive Software, Inc.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>226.76</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1.92071</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.779</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>18.785519</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>-1.1476101</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.02636</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -5662,12 +5804,6 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/nasdaq100.xlsx
+++ b/nasdaq100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,24 +466,24 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>PBR</t>
+          <t>P/B</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PER</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ICR</t>
@@ -507,6 +507,16 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>B-Score(9)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Analysts(Tgt)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ESG</t>
         </is>
       </c>
     </row>
@@ -523,29 +533,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>162.23</v>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.94</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3302</v>
+        <v>0.35177</v>
       </c>
       <c r="F2" t="n">
         <v>2.465</v>
       </c>
       <c r="G2" t="n">
-        <v>6.9216657</v>
+        <v>6.853811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36372003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.15880999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19.71203</v>
+        <v>19.70012</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>36.37%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15.88%</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>31.85</v>
@@ -562,6 +578,16 @@
       <c r="O2" t="n">
         <v>8</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>buy(+22%)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>11.56, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,11 +602,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>116.2</v>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0.03385</v>
@@ -589,16 +617,20 @@
         <v>2.206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5163113499999999</v>
+        <v>0.44428015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44924</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.15886</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.024668</v>
+        <v>9.477612000000001</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44.92%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15.89%</t>
+        </is>
       </c>
       <c r="K3" t="n">
         <v>1334.46</v>
@@ -615,46 +647,62 @@
       <c r="O3" t="n">
         <v>8</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>strong_buy(+34%)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>28.97, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASML Holding N.V.</t>
+          <t>Cognizant Technology Solutions Corporation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>737.17</v>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.21033</v>
+        <v>0.07913000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1.519</v>
+        <v>2.215</v>
       </c>
       <c r="G4" t="n">
-        <v>16.524399</v>
+        <v>2.6676815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.55618</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.15335</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29.676731</v>
+        <v>16.972631</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16.61%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10.09%</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>55.49</v>
+        <v>56.04</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -668,6 +716,16 @@
       <c r="O4" t="n">
         <v>7</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>hold(+8%)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>15.34, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,11 +740,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>452.57</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>459.55</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0.32626</v>
@@ -695,16 +755,20 @@
         <v>1.372</v>
       </c>
       <c r="G5" t="n">
-        <v>10.451963</v>
+        <v>10.613106</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3361</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.14581999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>34.9745</v>
+        <v>35.486294</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>33.61%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14.58%</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>37.29</v>
@@ -721,52 +785,68 @@
       <c r="O5" t="n">
         <v>7</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>strong_buy(+11%)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>17.39, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions Corporation</t>
+          <t>Paychex, Inc.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>79.98999999999999</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>158.75</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.07913000000000001</v>
+        <v>0.20981</v>
       </c>
       <c r="F6" t="n">
-        <v>2.215</v>
+        <v>1.393</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6468349</v>
+        <v>13.890104</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16605</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.10094</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.84</v>
+        <v>32.935684</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>44.25%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11.64%</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>56.04</v>
+        <v>58.29</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -774,105 +854,137 @@
       <c r="O6" t="n">
         <v>7</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>hold(-8%)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>18.01, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Paychex, Inc.</t>
+          <t>ANSYS, Inc.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>156.22</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>347.89</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0.20981</v>
+        <v>0.13932</v>
       </c>
       <c r="F7" t="n">
-        <v>1.393</v>
+        <v>3.657</v>
       </c>
       <c r="G7" t="n">
-        <v>13.668737</v>
+        <v>4.9493527</v>
       </c>
       <c r="H7" t="n">
-        <v>0.44254002</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.11643</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32.478172</v>
+        <v>51.463017</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10.23%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>58.29</v>
+        <v>15</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>hold(0%)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>15.22, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDW Corporation</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>181.82</v>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>172.90</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2.72795</v>
+        <v>0.08254</v>
       </c>
       <c r="F8" t="n">
-        <v>1.323</v>
+        <v>1.768</v>
       </c>
       <c r="G8" t="n">
-        <v>10.307841</v>
+        <v>6.0869074</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48707</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07545</v>
-      </c>
-      <c r="J8" t="n">
-        <v>22.530361</v>
+        <v>19.296719</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>34.79%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>7.7</v>
+        <v>419.37</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -880,52 +992,68 @@
       <c r="O8" t="n">
         <v>6</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>buy(+17%)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>24.89, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANSYS, Inc.</t>
+          <t>CDW Corporation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>343</v>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>185.25</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0.13932</v>
+        <v>2.72795</v>
       </c>
       <c r="F9" t="n">
-        <v>3.657</v>
+        <v>1.323</v>
       </c>
       <c r="G9" t="n">
-        <v>4.8797836</v>
+        <v>10.50258</v>
       </c>
       <c r="H9" t="n">
-        <v>0.102299996</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.06059</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50.739643</v>
+        <v>22.927599</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>48.71%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>7.54%</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -933,52 +1061,68 @@
       <c r="O9" t="n">
         <v>6</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>buy(+13%)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>7.49, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AstraZeneca PLC</t>
+          <t>Cintas Corporation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>69.68000000000001</v>
+          <t>Specialty Business Services</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>225.96</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7711199999999999</v>
+        <v>0.58617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.897</v>
+        <v>1.721</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6317182</v>
+        <v>19.86287</v>
       </c>
       <c r="H10" t="n">
-        <v>0.19793</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.08158</v>
-      </c>
-      <c r="J10" t="n">
-        <v>27.983936</v>
+        <v>52.426918</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>40.3%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15.53%</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>6.09</v>
+        <v>20.53</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -986,46 +1130,62 @@
       <c r="O10" t="n">
         <v>6</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>hold(-7%)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>16.66, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cintas Corporation</t>
+          <t>Copart, Inc.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>221.05</v>
+          <t>Specialty Business Services</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.75</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0.58617</v>
+        <v>0.01148</v>
       </c>
       <c r="F11" t="n">
-        <v>1.721</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>19.43126</v>
+        <v>5.804357</v>
       </c>
       <c r="H11" t="n">
-        <v>0.40296</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.15531999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>51.287704</v>
+        <v>34.933777</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>18.44%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11.63%</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>20.53</v>
+        <v>82.39</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1039,52 +1199,68 @@
       <c r="O11" t="n">
         <v>6</v>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>buy(+15%)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18.29, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Copart, Inc.</t>
+          <t>CSX Corporation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>61.09</v>
+          <t>Railroads</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01434</v>
+        <v>1.62012</v>
       </c>
       <c r="F12" t="n">
-        <v>7.888</v>
+        <v>0.883</v>
       </c>
       <c r="G12" t="n">
-        <v>7.109275</v>
+        <v>4.8795924</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19184999</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.12133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>41</v>
+        <v>18.815477</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>26.12%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>7.45%</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>82.39</v>
+        <v>6.48</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -1092,46 +1268,62 @@
       <c r="O12" t="n">
         <v>6</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>buy(+4%)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>24.09, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NXP Semiconductors N.V.</t>
+          <t>Costco Wholesale Corporation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>205.35</v>
+          <t>Discount Stores</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,019.24</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1.21164</v>
+        <v>0.31431</v>
       </c>
       <c r="F13" t="n">
-        <v>2.085</v>
+        <v>0.997</v>
       </c>
       <c r="G13" t="n">
-        <v>5.576526</v>
+        <v>17.682552</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25441998</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.087629996</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22.369282</v>
+        <v>59.604675</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>32.89%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8.73%</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>8.720000000000001</v>
+        <v>54.94</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1145,49 +1337,65 @@
       <c r="O13" t="n">
         <v>6</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>buy(+3%)</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>29.12, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Old Dominion Freight Line, Inc.</t>
+          <t>Diamondback Energy, Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>164.19</v>
+          <t>Oil &amp; Gas E&amp;P</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>137.64</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01416</v>
+        <v>0.33594</v>
       </c>
       <c r="F14" t="n">
-        <v>1.318</v>
+        <v>0.859</v>
       </c>
       <c r="G14" t="n">
-        <v>8.215662</v>
+        <v>1.0277932</v>
       </c>
       <c r="H14" t="n">
-        <v>0.26593</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.16778</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30.74719</v>
+        <v>8.554380999999999</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>14.67%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>7.13%</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>7283.01</v>
+        <v>16.32</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1198,49 +1406,65 @@
       <c r="O14" t="n">
         <v>6</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>buy(+32%)</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>37.31, LEAD_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Diamondback Energy, Inc.</t>
+          <t>Fastenal Company</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>136.31</v>
+          <t>Industrial Distribution</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0.33594</v>
+        <v>0.13435</v>
       </c>
       <c r="F15" t="n">
-        <v>0.859</v>
+        <v>4.277</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0178616</v>
+        <v>12.949953</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14668</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.07135</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.476990000000001</v>
+        <v>41.66</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>32.35%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>16.32</v>
+        <v>206.85</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1251,52 +1475,68 @@
       <c r="O15" t="n">
         <v>6</v>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>hold(-9%)</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>18.81, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fastenal Company</t>
+          <t>Honeywell International Inc.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>81.45999999999999</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>226.31</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0.13435</v>
+        <v>1.88514</v>
       </c>
       <c r="F16" t="n">
-        <v>4.277</v>
+        <v>1.253</v>
       </c>
       <c r="G16" t="n">
-        <v>25.321728</v>
+        <v>8.328609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.32351002</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.20121</v>
-      </c>
-      <c r="J16" t="n">
-        <v>81.45999999999999</v>
+        <v>26.012068</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>32.68%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>206.85</v>
+        <v>7.24</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -1304,52 +1544,66 @@
       <c r="O16" t="n">
         <v>6</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>buy(+5%)</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>28.01, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lam Research Corporation</t>
+          <t>Intuit Inc.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>82.79000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.47148</v>
-      </c>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>755.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2.452</v>
+        <v>1.447</v>
       </c>
       <c r="G17" t="n">
-        <v>11.168218</v>
+        <v>10.482715</v>
       </c>
       <c r="H17" t="n">
-        <v>0.53138</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.17291</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23.061281</v>
+        <v>61.659054</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17.84%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>23.12</v>
+        <v>16.02</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -1357,52 +1611,68 @@
       <c r="O17" t="n">
         <v>6</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>buy(+2%)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>13.41, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Honeywell International Inc.</t>
+          <t>Lam Research Corporation</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>221.87</v>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>1.88514</v>
+        <v>0.47148</v>
       </c>
       <c r="F18" t="n">
-        <v>1.253</v>
+        <v>2.452</v>
       </c>
       <c r="G18" t="n">
-        <v>8.16539</v>
+        <v>11.295696</v>
       </c>
       <c r="H18" t="n">
-        <v>0.32676998</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.07409</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25.502298</v>
+        <v>23.324512</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>53.14%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17.29%</t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>7.24</v>
+        <v>23.12</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -1410,46 +1680,62 @@
       <c r="O18" t="n">
         <v>6</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>buy(+8%)</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>12.21, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CSX Corporation</t>
+          <t>Linde plc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>30.49</v>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>465.58</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>1.62012</v>
+        <v>0.60555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.883</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7066994</v>
+        <v>5.769483</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26121</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.07445</v>
-      </c>
-      <c r="J19" t="n">
-        <v>18.14881</v>
+        <v>33.835754</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>17.01%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6.96%</t>
+        </is>
       </c>
       <c r="K19" t="n">
-        <v>6.48</v>
+        <v>17.65</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1463,46 +1749,62 @@
       <c r="O19" t="n">
         <v>6</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>buy(+6%)</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>11.73, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Costco Wholesale Corporation</t>
+          <t>NXP Semiconductors N.V.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1025.3</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>197.45</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0.31431</v>
+        <v>1.21164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997</v>
+        <v>2.085</v>
       </c>
       <c r="G20" t="n">
-        <v>17.787687</v>
+        <v>5.361992</v>
       </c>
       <c r="H20" t="n">
-        <v>0.32894</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.087349996</v>
-      </c>
-      <c r="J20" t="n">
-        <v>59.88902</v>
+        <v>21.485312</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25.44%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>54.94</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1516,49 +1818,65 @@
       <c r="O20" t="n">
         <v>6</v>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>buy(+18%)</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>16.69, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alphabet Inc.</t>
+          <t>Old Dominion Freight Line, Inc.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>168.56</v>
+          <t>Trucking</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>164.54</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0.08254</v>
+        <v>0.01416</v>
       </c>
       <c r="F21" t="n">
-        <v>1.768</v>
+        <v>1.318</v>
       </c>
       <c r="G21" t="n">
-        <v>5.9341664</v>
+        <v>8.233174</v>
       </c>
       <c r="H21" t="n">
-        <v>0.34789002</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.16896999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>18.791527</v>
+        <v>30.812733</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>26.59%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>16.78%</t>
+        </is>
       </c>
       <c r="K21" t="n">
-        <v>419.37</v>
+        <v>7283.01</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1569,52 +1887,68 @@
       <c r="O21" t="n">
         <v>6</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>hold(+2%)</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>15.93, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alphabet Inc.</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>170.06</v>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>131.94</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0.08254</v>
+        <v>2.61849</v>
       </c>
       <c r="F22" t="n">
-        <v>1.768</v>
+        <v>0.834</v>
       </c>
       <c r="G22" t="n">
-        <v>5.986974</v>
+        <v>9.851789</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34789002</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.16896999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>18.97991</v>
+        <v>19.403677</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>49.93%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>8.86%</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>419.37</v>
+        <v>14.06</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -1622,52 +1956,68 @@
       <c r="O22" t="n">
         <v>6</v>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>hold(+14%)</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>20.25, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PepsiCo, Inc.</t>
+          <t>Synopsys, Inc.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>130.15</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>506.21</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>2.61849</v>
+        <v>0.07147000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.834</v>
+        <v>2.681</v>
       </c>
       <c r="G23" t="n">
-        <v>9.717763</v>
+        <v>8.411738</v>
       </c>
       <c r="H23" t="n">
-        <v>0.49927</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.08858000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.167892</v>
+        <v>60.69664</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15.95%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6.65%</t>
+        </is>
       </c>
       <c r="K23" t="n">
-        <v>14.06</v>
+        <v>38.56</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -1675,49 +2025,65 @@
       <c r="O23" t="n">
         <v>6</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>strong_buy(+18%)</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>17.39, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Synopsys, Inc.</t>
+          <t>Airbnb, Inc.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>501.46</v>
+          <t>Travel Services</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>128.03</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0.07147000000000001</v>
+        <v>0.28726</v>
       </c>
       <c r="F24" t="n">
-        <v>2.681</v>
+        <v>1.273</v>
       </c>
       <c r="G24" t="n">
-        <v>8.332807000000001</v>
+        <v>9.985182</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15951</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.06647</v>
-      </c>
-      <c r="J24" t="n">
-        <v>60.271637</v>
+        <v>32.577606</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>32.06%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
       </c>
       <c r="K24" t="n">
-        <v>38.56</v>
+        <v>18.29</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -1726,156 +2092,208 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>hold(+9%)</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>23.27, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Intuit Inc.</t>
+          <t>Adobe Inc.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>659.98</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>412.77</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5011800000000001</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.272</v>
+        <v>1.185</v>
       </c>
       <c r="G25" t="n">
-        <v>10.28599</v>
+        <v>13.712088</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17424999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.08257</v>
-      </c>
-      <c r="J25" t="n">
-        <v>61.738075</v>
+        <v>27.299934</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>47.28%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>17.19%</t>
+        </is>
       </c>
       <c r="K25" t="n">
-        <v>16.02</v>
+        <v>45.8</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>buy(+19%)</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>14.21, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Linde plc</t>
+          <t>Autodesk, Inc.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>455.5</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>300.71</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0.60555</v>
+        <v>0.97211</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.654</v>
       </c>
       <c r="G26" t="n">
-        <v>5.644572</v>
+        <v>24.589909</v>
       </c>
       <c r="H26" t="n">
-        <v>0.17013</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.06963</v>
-      </c>
-      <c r="J26" t="n">
-        <v>33.007244</v>
+        <v>64.530045</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>42.36%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
       </c>
       <c r="K26" t="n">
-        <v>17.65</v>
+        <v>13.93</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>buy(+12%)</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>15.14, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lululemon athletica inc.</t>
+          <t>Analog Devices, Inc.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>317.56</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>217.28</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0.36443</v>
+        <v>0.2062</v>
       </c>
       <c r="F27" t="n">
-        <v>2.164</v>
+        <v>2.077</v>
       </c>
       <c r="G27" t="n">
-        <v>8.906964</v>
+        <v>3.0797577</v>
       </c>
       <c r="H27" t="n">
-        <v>0.42417</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.21314</v>
-      </c>
-      <c r="J27" t="n">
-        <v>21.691256</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>58.88347</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5.21%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6.42</v>
+      </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1883,105 +2301,137 @@
       <c r="O27" t="n">
         <v>5</v>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>buy(+12%)</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>16.7, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Kraft Heinz Company</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>26.63</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>200.33</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0.4355</v>
+        <v>1.46994</v>
       </c>
       <c r="F28" t="n">
-        <v>1.307</v>
+        <v>0.821</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6407141</v>
+        <v>44.800938</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0535</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.037520003</v>
-      </c>
-      <c r="J28" t="n">
-        <v>12.159817</v>
+        <v>31.151632</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>138.01%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>23.81%</t>
+        </is>
       </c>
       <c r="K28" t="n">
-        <v>6.01</v>
+        <v>29.06</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>5</v>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>buy(+14%)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>18.99, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cadence Design Systems, Inc.</t>
+          <t>Baker Hughes Company</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>317.55</v>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>37.05</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0.51864</v>
+        <v>0.35011</v>
       </c>
       <c r="F29" t="n">
-        <v>3.074</v>
+        <v>1.337</v>
       </c>
       <c r="G29" t="n">
-        <v>18.152975</v>
+        <v>2.1530683</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25921</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.12727</v>
-      </c>
-      <c r="J29" t="n">
-        <v>80.59644</v>
+        <v>12.645051</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>18.04%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5.79%</t>
+        </is>
       </c>
       <c r="K29" t="n">
-        <v>18.09</v>
+        <v>17.08</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -1989,46 +2439,62 @@
       <c r="O29" t="n">
         <v>5</v>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>buy(+26%)</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>19.12, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Airbnb, Inc.</t>
+          <t>Biogen Inc.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>127.52</v>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>128.79</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>0.28726</v>
+        <v>0.38997</v>
       </c>
       <c r="F30" t="n">
-        <v>1.273</v>
+        <v>1.44</v>
       </c>
       <c r="G30" t="n">
-        <v>9.945406</v>
+        <v>1.1112548</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3206</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.06276</v>
-      </c>
-      <c r="J30" t="n">
-        <v>32.365482</v>
+        <v>12.726284</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>9.19%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
       </c>
       <c r="K30" t="n">
-        <v>18.29</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2042,46 +2508,62 @@
       <c r="O30" t="n">
         <v>5</v>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>buy(+34%)</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>20.35, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Autodesk, Inc.</t>
+          <t>Cadence Design Systems, Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>292.93</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>321.33</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>0.97634</v>
+        <v>0.51864</v>
       </c>
       <c r="F31" t="n">
-        <v>0.676</v>
+        <v>3.074</v>
       </c>
       <c r="G31" t="n">
-        <v>23.916557</v>
+        <v>18.36906</v>
       </c>
       <c r="H31" t="n">
-        <v>0.49687</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.085260004</v>
-      </c>
-      <c r="J31" t="n">
-        <v>57.10136</v>
+        <v>81.55583</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>25.92%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>12.73%</t>
+        </is>
       </c>
       <c r="K31" t="n">
-        <v>13.93</v>
+        <v>18.09</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -2095,46 +2577,62 @@
       <c r="O31" t="n">
         <v>5</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>buy(+0%)</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>14.49, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Baker Hughes Company</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>36.65</v>
+          <t>Communication Equipment</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>0.35011</v>
+        <v>0.66932</v>
       </c>
       <c r="F32" t="n">
-        <v>1.337</v>
+        <v>0.951</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1298234</v>
+        <v>5.4767237</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18035999</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.05787</v>
-      </c>
-      <c r="J32" t="n">
-        <v>12.508533</v>
+        <v>25.93061</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>21.36%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
       </c>
       <c r="K32" t="n">
-        <v>17.08</v>
+        <v>12.89</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2148,99 +2646,131 @@
       <c r="O32" t="n">
         <v>5</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>buy(+9%)</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>13.09, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>Electronic Arts Inc.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>63.2</v>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>147.12</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>0.6374</v>
+        <v>0.34732</v>
       </c>
       <c r="F33" t="n">
-        <v>0.951</v>
+        <v>0.947</v>
       </c>
       <c r="G33" t="n">
-        <v>5.4647646</v>
+        <v>5.812722</v>
       </c>
       <c r="H33" t="n">
-        <v>0.21356001</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.0631</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25.795918</v>
+        <v>34.61647</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>7.68%</t>
+        </is>
       </c>
       <c r="K33" t="n">
-        <v>12.89</v>
+        <v>27.19</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>5</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>buy(+13%)</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>12.09, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Adobe Inc.</t>
+          <t>The Kraft Heinz Company</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>414.03</v>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5011800000000001</v>
+        <v>0.4355</v>
       </c>
       <c r="F34" t="n">
-        <v>1.185</v>
+        <v>1.307</v>
       </c>
       <c r="G34" t="n">
-        <v>13.753778</v>
+        <v>0.6449246</v>
       </c>
       <c r="H34" t="n">
-        <v>0.47284</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.17194</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27.328714</v>
+        <v>12.239726</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
       </c>
       <c r="K34" t="n">
-        <v>45.8</v>
+        <v>6.01</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -2254,105 +2784,135 @@
       <c r="O34" t="n">
         <v>5</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>hold(+18%)</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>31.17, LEAD_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>lululemon athletica inc.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>202.09</v>
+          <t>Apparel Retail</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>318.90</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>1.46994</v>
+        <v>0.36443</v>
       </c>
       <c r="F35" t="n">
-        <v>0.821</v>
+        <v>2.164</v>
       </c>
       <c r="G35" t="n">
-        <v>45.200176</v>
+        <v>8.944549</v>
       </c>
       <c r="H35" t="n">
-        <v>1.38015</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.23809999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>31.429237</v>
-      </c>
-      <c r="K35" t="n">
-        <v>29.06</v>
-      </c>
+        <v>21.767918</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>42.42%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>21.31%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>5</v>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>buy(+3%)</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>14.11, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Analog Devices, Inc.</t>
+          <t>Meta Platforms, Inc.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>222.22</v>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>644.80</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>0.21725</v>
+        <v>0.26763</v>
       </c>
       <c r="F36" t="n">
-        <v>1.93</v>
+        <v>2.662</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1426957</v>
+        <v>8.792356</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04429</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="J36" t="n">
-        <v>70.99679999999999</v>
+        <v>25.227114</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>39.84%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>17.88%</t>
+        </is>
       </c>
       <c r="K36" t="n">
-        <v>6.42</v>
+        <v>97.03</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
@@ -2360,49 +2920,65 @@
       <c r="O36" t="n">
         <v>5</v>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>strong_buy(+10%)</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>32.73, LEAD_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biogen Inc.</t>
+          <t>MercadoLibre, Inc.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>126.82</v>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2,566.11</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>0.38997</v>
+        <v>1.55016</v>
       </c>
       <c r="F37" t="n">
-        <v>1.44</v>
+        <v>1.203</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0942569</v>
+        <v>25.998299</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09191000000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.0543</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12.531621</v>
+        <v>63.158012</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>49.11%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>7.74%</t>
+        </is>
       </c>
       <c r="K37" t="n">
-        <v>8.859999999999999</v>
+        <v>15.95</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -2413,52 +2989,68 @@
       <c r="O37" t="n">
         <v>5</v>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>buy(+6%)</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>22.82, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>151.31</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>125.09</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>0.52737</v>
+        <v>0.04432000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>2.733</v>
+        <v>6.494</v>
       </c>
       <c r="G38" t="n">
-        <v>6.0026975</v>
+        <v>54.41061</v>
       </c>
       <c r="H38" t="n">
-        <v>0.42205003</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.13428001</v>
-      </c>
-      <c r="J38" t="n">
-        <v>15.4397955</v>
+        <v>543.86957</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>12.36%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4.39%</t>
+        </is>
       </c>
       <c r="K38" t="n">
-        <v>14.45</v>
+        <v>34.57</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
@@ -2466,52 +3058,68 @@
       <c r="O38" t="n">
         <v>5</v>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>hold(-23%)</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>21.59, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Electronic Arts Inc.</t>
+          <t>NVIDIA Corporation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>150.5</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>135.31</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>0.34732</v>
+        <v>0.12946</v>
       </c>
       <c r="F39" t="n">
-        <v>0.947</v>
+        <v>4.44</v>
       </c>
       <c r="G39" t="n">
-        <v>5.9462667</v>
+        <v>41.74946</v>
       </c>
       <c r="H39" t="n">
-        <v>0.16131</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.07678</v>
-      </c>
-      <c r="J39" t="n">
-        <v>35.495285</v>
+        <v>46.023808</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>119.18%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>57.42%</t>
+        </is>
       </c>
       <c r="K39" t="n">
-        <v>27.19</v>
+        <v>329.77</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2519,52 +3127,68 @@
       <c r="O39" t="n">
         <v>5</v>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>buy(+20%)</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>12.46, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>120.58</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>148.35</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>0.04432000000000001</v>
+        <v>0.52737</v>
       </c>
       <c r="F40" t="n">
-        <v>6.494</v>
+        <v>2.733</v>
       </c>
       <c r="G40" t="n">
-        <v>52.44889</v>
+        <v>5.88527</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12357</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.043920003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>524.26086</v>
+        <v>15.153218</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>42.21%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>13.43%</t>
+        </is>
       </c>
       <c r="K40" t="n">
-        <v>34.57</v>
+        <v>14.45</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
@@ -2572,105 +3196,137 @@
       <c r="O40" t="n">
         <v>5</v>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>buy(+17%)</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>13.62, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>Regeneron Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>131.8</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>601.82</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>0.12946</v>
+        <v>0.09204000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>4.44</v>
+        <v>4.927</v>
       </c>
       <c r="G41" t="n">
-        <v>40.666462</v>
+        <v>2.1686792</v>
       </c>
       <c r="H41" t="n">
-        <v>1.1917701</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.57417</v>
-      </c>
-      <c r="J41" t="n">
-        <v>44.829933</v>
+        <v>15.301678</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>15.96%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
       </c>
       <c r="K41" t="n">
-        <v>329.77</v>
+        <v>72.3</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>5</v>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>buy(+31%)</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>18.39, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ross Stores, Inc.</t>
+          <t>Roper Technologies, Inc.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>152.68</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>573.96</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>1.03144</v>
+        <v>0.3878799999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>1.617</v>
+        <v>0.462</v>
       </c>
       <c r="G42" t="n">
-        <v>9.112503999999999</v>
+        <v>3.2100852</v>
       </c>
       <c r="H42" t="n">
-        <v>0.40282002</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.11066</v>
-      </c>
-      <c r="J42" t="n">
-        <v>24.158226</v>
+        <v>41.321815</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>8.09%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
       </c>
       <c r="K42" t="n">
-        <v>40.79</v>
+        <v>7.7</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -2678,52 +3334,68 @@
       <c r="O42" t="n">
         <v>5</v>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>buy(+10%)</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>21.74, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Texas Instruments Incorporated</t>
+          <t>Ross Stores, Inc.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>185.42</v>
+          <t>Apparel Retail</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>140.24</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>0.78313</v>
+        <v>0.8995000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>5.258</v>
+        <v>1.55</v>
       </c>
       <c r="G43" t="n">
-        <v>10.273714</v>
+        <v>8.170299</v>
       </c>
       <c r="H43" t="n">
-        <v>0.29189</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.10038</v>
-      </c>
-      <c r="J43" t="n">
-        <v>35.117424</v>
+        <v>22.154028</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>39.57%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11.29%</t>
+        </is>
       </c>
       <c r="K43" t="n">
-        <v>10.51</v>
+        <v>40.79</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -2731,52 +3403,68 @@
       <c r="O43" t="n">
         <v>5</v>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>buy(+7%)</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>17.03, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Roper Technologies, Inc.</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>572.8099999999999</v>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>361.31</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>0.3878799999999999</v>
+        <v>0.17407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.462</v>
+        <v>1.996</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2036533</v>
+        <v>15.586826</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08094999999999999</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.04156</v>
-      </c>
-      <c r="J44" t="n">
-        <v>41.328285</v>
+        <v>207.68103</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>8.77%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
       </c>
       <c r="K44" t="n">
-        <v>7.7</v>
+        <v>22.17</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -2784,52 +3472,68 @@
       <c r="O44" t="n">
         <v>5</v>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>hold(-17%)</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>24.76, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Texas Instruments Incorporated</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>334.62</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>184.70</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>0.17407</v>
+        <v>0.78313</v>
       </c>
       <c r="F45" t="n">
-        <v>1.996</v>
+        <v>5.258</v>
       </c>
       <c r="G45" t="n">
-        <v>14.433229</v>
+        <v>10.233821</v>
       </c>
       <c r="H45" t="n">
-        <v>0.087740004</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.03724</v>
-      </c>
-      <c r="J45" t="n">
-        <v>192.31035</v>
+        <v>34.98106</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>29.19%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>10.04%</t>
+        </is>
       </c>
       <c r="K45" t="n">
-        <v>22.17</v>
+        <v>10.51</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -2837,47 +3541,61 @@
       <c r="O45" t="n">
         <v>5</v>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>hold(-3%)</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>20.2, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regeneron Pharmaceuticals, Inc.</t>
+          <t>Arm Holdings plc</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>604.62</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>134.82</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>0.09204000000000001</v>
+        <v>0.05059</v>
       </c>
       <c r="F46" t="n">
-        <v>4.927</v>
+        <v>5.199</v>
       </c>
       <c r="G46" t="n">
-        <v>2.1787872</v>
+        <v>20.837715</v>
       </c>
       <c r="H46" t="n">
-        <v>0.15961</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.06909999999999999</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.36128</v>
-      </c>
-      <c r="K46" t="n">
-        <v>72.3</v>
-      </c>
+        <v>179.76001</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13.05%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="b">
         <v>0</v>
       </c>
@@ -2888,51 +3606,67 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>buy(-2%)</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28.77, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Meta Platforms, Inc.</t>
+          <t>Axon Enterprise, Inc.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>635.5</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>751.93</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>0.26763</v>
+        <v>0.8008</v>
       </c>
       <c r="F47" t="n">
-        <v>2.662</v>
+        <v>2.825</v>
       </c>
       <c r="G47" t="n">
-        <v>8.665476</v>
+        <v>22.9032</v>
       </c>
       <c r="H47" t="n">
-        <v>0.39835</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.17879999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>24.814526</v>
+        <v>179.88876</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15.17%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
       </c>
       <c r="K47" t="n">
-        <v>97.03</v>
+        <v>8.25</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
@@ -2941,51 +3675,67 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>buy(-6%)</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>30.49, LEAD_PERF</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MercadoLibre, Inc.</t>
+          <t>Amazon.com, Inc.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2601.97</v>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>205.54</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>1.55016</v>
+        <v>0.51641</v>
       </c>
       <c r="F48" t="n">
-        <v>1.203</v>
+        <v>1.048</v>
       </c>
       <c r="G48" t="n">
-        <v>26.361609</v>
+        <v>7.1318526</v>
       </c>
       <c r="H48" t="n">
-        <v>0.49106997</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.07739</v>
-      </c>
-      <c r="J48" t="n">
-        <v>64.10372</v>
+        <v>33.47557</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>25.24%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>7.63%</t>
+        </is>
       </c>
       <c r="K48" t="n">
-        <v>15.95</v>
+        <v>28.51</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -2994,103 +3744,139 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>strong_buy(+16%)</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>26.1, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O'Reilly Automotive, Inc.</t>
+          <t>American Electric Power Company, Inc.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>1370.49</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>102.57</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.71503</v>
+      </c>
       <c r="F49" t="n">
-        <v>0.708</v>
+        <v>0.417</v>
       </c>
       <c r="G49" t="n">
-        <v>-57.66114</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
-        <v>0.13728</v>
-      </c>
-      <c r="J49" t="n">
-        <v>33.55754</v>
+        <v>2.0048082</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19.801159</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2.89%</t>
+        </is>
       </c>
       <c r="K49" t="n">
-        <v>14.61</v>
+        <v>2.39</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
       </c>
       <c r="M49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>4</v>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>hold(+6%)</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>21.95, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AppLovin Corporation</t>
+          <t>Automatic Data Processing, Inc.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>358.35</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>326.05</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>6.44739</v>
+        <v>0.7457699999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1.68</v>
+        <v>1.015</v>
       </c>
       <c r="G50" t="n">
-        <v>210.6702</v>
+        <v>22.625076</v>
       </c>
       <c r="H50" t="n">
-        <v>2.8750799</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.27267998</v>
-      </c>
-      <c r="J50" t="n">
-        <v>64.91848</v>
+        <v>33.372566</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>76.29%</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
       </c>
       <c r="K50" t="n">
-        <v>5.89</v>
+        <v>10.85</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -3098,52 +3884,68 @@
       <c r="O50" t="n">
         <v>4</v>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>hold(-4%)</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>15.12, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Axon Enterprise, Inc.</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>735.38</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>235.13</t>
+        </is>
       </c>
       <c r="E51" t="n">
-        <v>0.8008</v>
+        <v>1.66032</v>
       </c>
       <c r="F51" t="n">
-        <v>2.825</v>
+        <v>1.004</v>
       </c>
       <c r="G51" t="n">
-        <v>22.39895</v>
+        <v>3.9703822</v>
       </c>
       <c r="H51" t="n">
-        <v>0.15166001</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.00677</v>
-      </c>
-      <c r="J51" t="n">
-        <v>178.4903</v>
+        <v>108.354836</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>14.85%</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
       </c>
       <c r="K51" t="n">
-        <v>8.25</v>
+        <v>3.79</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="b">
         <v>1</v>
@@ -3151,6 +3953,16 @@
       <c r="O51" t="n">
         <v>4</v>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>strong_buy(+3%)</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>19.2, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3165,11 +3977,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>287.11</v>
+          <t>Utilities - Renewable</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>309.21</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v>0.62682</v>
@@ -3178,16 +3992,20 @@
         <v>1.472</v>
       </c>
       <c r="G52" t="n">
-        <v>6.944753</v>
+        <v>7.4793186</v>
       </c>
       <c r="H52" t="n">
-        <v>0.23974001</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.04676</v>
-      </c>
-      <c r="J52" t="n">
-        <v>30.222103</v>
+        <v>32.582718</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>23.97%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
       </c>
       <c r="K52" t="n">
         <v>9.58</v>
@@ -3204,42 +4022,62 @@
       <c r="O52" t="n">
         <v>4</v>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>buy(-5%)</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>28.67, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Booking Holdings Inc.</t>
+          <t>DexCom, Inc.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5293.31</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1.13968</v>
+      </c>
       <c r="F53" t="n">
-        <v>1.217</v>
+        <v>1.499</v>
       </c>
       <c r="G53" t="n">
-        <v>-28.319191</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>0.17963</v>
-      </c>
-      <c r="J53" t="n">
-        <v>33.002743</v>
+        <v>15.041515</v>
+      </c>
+      <c r="H53" t="n">
+        <v>65.3797</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>23.72%</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
       </c>
       <c r="K53" t="n">
-        <v>5.83</v>
+        <v>31.58</v>
       </c>
       <c r="L53" t="b">
         <v>1</v>
@@ -3248,159 +4086,211 @@
         <v>0</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>4</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>strong_buy(+13%)</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>20.24, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>Fortinet, Inc.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>229.73</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>104.69</t>
+        </is>
       </c>
       <c r="E54" t="n">
-        <v>1.66032</v>
+        <v>0.54842</v>
       </c>
       <c r="F54" t="n">
-        <v>1.004</v>
+        <v>1.363</v>
       </c>
       <c r="G54" t="n">
-        <v>3.879198</v>
+        <v>41.022728</v>
       </c>
       <c r="H54" t="n">
-        <v>0.14845</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.06975999500000001</v>
-      </c>
-      <c r="J54" t="n">
-        <v>106.356476</v>
+        <v>43.082306</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>205.91%</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
       </c>
       <c r="K54" t="n">
-        <v>3.79</v>
+        <v>90.17</v>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>4</v>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>hold(+4%)</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>15.96, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Amazon.com, Inc.</t>
+          <t>Gilead Sciences, Inc.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>201.12</v>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>108.78</t>
+        </is>
       </c>
       <c r="E55" t="n">
-        <v>0.51641</v>
+        <v>1.30789</v>
       </c>
       <c r="F55" t="n">
-        <v>1.048</v>
+        <v>1.369</v>
       </c>
       <c r="G55" t="n">
-        <v>6.978487</v>
+        <v>7.0677667</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.07632</v>
-      </c>
-      <c r="J55" t="n">
-        <v>32.809135</v>
+        <v>22.85294</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>32.65%</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>12.14%</t>
+        </is>
       </c>
       <c r="K55" t="n">
-        <v>28.51</v>
+        <v>10.75</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>4</v>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>buy(+6%)</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>21.82, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Starbucks Corporation</t>
+          <t>IDEXX Laboratories, Inc.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>82.98</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>512.32</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7315900000000001</v>
+      </c>
       <c r="F56" t="n">
-        <v>0.644</v>
+        <v>1.16</v>
       </c>
       <c r="G56" t="n">
-        <v>-12.368461</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>0.08979999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>30.174547</v>
+        <v>28.566969</v>
+      </c>
+      <c r="H56" t="n">
+        <v>47.481003</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>59.33%</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>22.98%</t>
+        </is>
       </c>
       <c r="K56" t="n">
-        <v>9.09</v>
+        <v>36.16</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3408,149 +4298,201 @@
       <c r="O56" t="n">
         <v>4</v>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>buy(-2%)</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>16.45, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PACCAR Inc</t>
+          <t>KLA Corporation</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>94.33</v>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>788.72</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>0.8715900000000001</v>
+        <v>1.52049</v>
       </c>
       <c r="F57" t="n">
-        <v>5.395</v>
+        <v>2.544</v>
       </c>
       <c r="G57" t="n">
-        <v>2.7477424</v>
+        <v>26.044115</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19899</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.06702</v>
-      </c>
-      <c r="J57" t="n">
-        <v>14.314113</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>28.722506</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>104.1%</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>11.68</v>
+      </c>
       <c r="L57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>4</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>buy(0%)</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>13.08, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Palo Alto Networks, Inc.</t>
+          <t>Mondelez International, Inc.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>181.26</v>
+          <t>Confectioners</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
       </c>
       <c r="E58" t="n">
-        <v>0.11147</v>
+        <v>0.78051</v>
       </c>
       <c r="F58" t="n">
-        <v>0.895</v>
+        <v>0.606</v>
       </c>
       <c r="G58" t="n">
-        <v>16.693682</v>
+        <v>3.3649695</v>
       </c>
       <c r="H58" t="n">
-        <v>0.21162</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.03658</v>
-      </c>
-      <c r="J58" t="n">
-        <v>104.17241</v>
+        <v>24.910782</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3.69%</t>
+        </is>
       </c>
       <c r="K58" t="n">
-        <v>142.48</v>
+        <v>13.12</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
         <v>4</v>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>buy(+9%)</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>21.98, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The Trade Desk, Inc.</t>
+          <t>Netflix, Inc.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>74.47</v>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1,208.83</t>
+        </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1233</v>
+        <v>0.7251300000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>1.811</v>
+        <v>1.204</v>
       </c>
       <c r="G59" t="n">
-        <v>13.468983</v>
+        <v>21.41569</v>
       </c>
       <c r="H59" t="n">
-        <v>0.16878</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="J59" t="n">
-        <v>90.81708</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>57.02028</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>40.84%</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>13.79%</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>14.49</v>
+      </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
@@ -3563,44 +4505,62 @@
       <c r="O59" t="n">
         <v>4</v>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>buy(-8%)</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>15.88, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals Incorporated</t>
+          <t>ON Semiconductor Corporation</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>435.32</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>43.31</t>
+        </is>
       </c>
       <c r="E60" t="n">
-        <v>0.09997</v>
+        <v>0.45383</v>
       </c>
       <c r="F60" t="n">
-        <v>2.646</v>
+        <v>4.949</v>
       </c>
       <c r="G60" t="n">
-        <v>6.781108</v>
+        <v>2.2538512</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.05644</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.11773</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>30.07639</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>7.85%</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>143.63</v>
+        <v>30.52</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3614,102 +4574,132 @@
       <c r="O60" t="n">
         <v>4</v>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>buy(+12%)</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>21.27, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Netflix, Inc.</t>
+          <t>Palo Alto Networks, Inc.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>1194.63</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>187.87</t>
+        </is>
       </c>
       <c r="E61" t="n">
-        <v>0.7251300000000001</v>
+        <v>0.11147</v>
       </c>
       <c r="F61" t="n">
-        <v>1.204</v>
+        <v>0.895</v>
       </c>
       <c r="G61" t="n">
-        <v>21.164122</v>
+        <v>17.30245</v>
       </c>
       <c r="H61" t="n">
-        <v>0.40842</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.13789</v>
-      </c>
-      <c r="J61" t="n">
-        <v>56.51041</v>
+        <v>107.97126</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>21.16%</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
       </c>
       <c r="K61" t="n">
-        <v>14.49</v>
+        <v>142.48</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
       </c>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>4</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>buy(+13%)</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>12.93, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ON Semiconductor Corporation</t>
+          <t>PACCAR Inc</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>43.66</v>
+          <t>Farm &amp; Heavy Construction Machinery</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
       </c>
       <c r="E62" t="n">
-        <v>0.45383</v>
+        <v>0.8715900000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>4.949</v>
+        <v>5.395</v>
       </c>
       <c r="G62" t="n">
-        <v>2.272065</v>
+        <v>2.770463</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07852000000000001</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.06303</v>
-      </c>
-      <c r="J62" t="n">
-        <v>30.319443</v>
-      </c>
-      <c r="K62" t="n">
-        <v>30.52</v>
-      </c>
+        <v>14.432473</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -3720,52 +4710,66 @@
       <c r="O62" t="n">
         <v>4</v>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>hold(+6%)</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>31.38, LEAD_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>American Electric Power Company, Inc.</t>
+          <t>The Trade Desk, Inc.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>102.93</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
       </c>
       <c r="E63" t="n">
-        <v>1.71503</v>
+        <v>0.1233</v>
       </c>
       <c r="F63" t="n">
-        <v>0.417</v>
+        <v>1.811</v>
       </c>
       <c r="G63" t="n">
-        <v>2.0118449</v>
+        <v>13.803581</v>
       </c>
       <c r="H63" t="n">
-        <v>0.10421</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.028900001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>19.870657</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.39</v>
-      </c>
+        <v>93.07317</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>16.88%</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>5.46%</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
@@ -3773,312 +4777,406 @@
       <c r="O63" t="n">
         <v>4</v>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>buy(+13%)</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>22.73, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Automatic Data Processing, Inc.</t>
+          <t>Vertex Pharmaceuticals Incorporated</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>322.63</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>449.38</t>
+        </is>
       </c>
       <c r="E64" t="n">
-        <v>0.7457699999999999</v>
+        <v>0.09997</v>
       </c>
       <c r="F64" t="n">
-        <v>1.015</v>
+        <v>2.646</v>
       </c>
       <c r="G64" t="n">
-        <v>22.38776</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.76289004</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.055710003</v>
-      </c>
-      <c r="J64" t="n">
-        <v>32.988754</v>
+        <v>7.0002027</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-5.64%</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>11.77%</t>
+        </is>
       </c>
       <c r="K64" t="n">
-        <v>10.85</v>
+        <v>143.63</v>
       </c>
       <c r="L64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>4</v>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>buy(+11%)</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>19.56, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Arm Holdings plc</t>
+          <t>Amgen Inc.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>130.45</v>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>280.73</t>
+        </is>
       </c>
       <c r="E65" t="n">
-        <v>0.05059</v>
+        <v>9.24456</v>
       </c>
       <c r="F65" t="n">
-        <v>5.199</v>
+        <v>1.17</v>
       </c>
       <c r="G65" t="n">
-        <v>20.162287</v>
+        <v>24.31783</v>
       </c>
       <c r="H65" t="n">
-        <v>0.13054</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.06161</v>
-      </c>
-      <c r="J65" t="n">
-        <v>176.28378</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>25.566942</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>105.67%</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>7.04%</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>2.3</v>
+      </c>
       <c r="L65" t="b">
         <v>0</v>
       </c>
       <c r="M65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>buy(+12%)</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22.53, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KLA Corporation</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>778.9400000000001</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>114.15</t>
+        </is>
       </c>
       <c r="E66" t="n">
-        <v>1.52049</v>
+        <v>0.08173999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>2.544</v>
+        <v>2.803</v>
       </c>
       <c r="G66" t="n">
-        <v>25.721172</v>
+        <v>3.1870341</v>
       </c>
       <c r="H66" t="n">
-        <v>1.04097</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.19229001</v>
-      </c>
-      <c r="J66" t="n">
-        <v>28.32509</v>
+        <v>83.32117</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
       </c>
       <c r="K66" t="n">
-        <v>11.68</v>
+        <v>22.67</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
       </c>
       <c r="M66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>buy(+12%)</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>12.51, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc.</t>
+          <t>CrowdStrike Holdings, Inc.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>65.26000000000001</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>467.07</t>
+        </is>
       </c>
       <c r="E67" t="n">
-        <v>0.78051</v>
+        <v>0.2377</v>
       </c>
       <c r="F67" t="n">
-        <v>0.606</v>
+        <v>1.766</v>
       </c>
       <c r="G67" t="n">
-        <v>3.2770917</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.13302</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.03691</v>
-      </c>
-      <c r="J67" t="n">
-        <v>24.260223</v>
+        <v>35.301186</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
       </c>
       <c r="K67" t="n">
-        <v>13.12</v>
+        <v>-4.58</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
       </c>
       <c r="M67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>buy(-10%)</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>18.59, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>CCEP</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IDEXX Laboratories, Inc.</t>
+          <t>Coca-Cola Europacific Partners PLC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>500.87</v>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
       </c>
       <c r="E68" t="n">
-        <v>0.7315900000000001</v>
+        <v>1.2739</v>
       </c>
       <c r="F68" t="n">
-        <v>1.16</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>27.928514</v>
+        <v>4.835505</v>
       </c>
       <c r="H68" t="n">
-        <v>0.59330004</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.22982</v>
-      </c>
-      <c r="J68" t="n">
-        <v>46.29113</v>
+        <v>25.448572</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>17.03%</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>5.34%</t>
+        </is>
       </c>
       <c r="K68" t="n">
-        <v>36.16</v>
+        <v>10.48</v>
       </c>
       <c r="L68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
       </c>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>buy(+2%)</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>16.84, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DexCom, Inc.</t>
+          <t>Comcast Corporation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>84.89</v>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
       </c>
       <c r="E69" t="n">
-        <v>1.13968</v>
+        <v>1.13542</v>
       </c>
       <c r="F69" t="n">
-        <v>1.499</v>
+        <v>0.645</v>
       </c>
       <c r="G69" t="n">
-        <v>14.68431</v>
+        <v>1.510437</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23716</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.05975</v>
-      </c>
-      <c r="J69" t="n">
-        <v>63.827065</v>
+        <v>8.608375000000001</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>18.05%</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
       </c>
       <c r="K69" t="n">
-        <v>31.58</v>
+        <v>5.64</v>
       </c>
       <c r="L69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
@@ -4087,104 +5185,136 @@
         <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>buy(+15%)</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21.9, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fortinet, Inc.</t>
+          <t>DoorDash, Inc.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>102.84</v>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>208.22</t>
+        </is>
       </c>
       <c r="E70" t="n">
-        <v>0.54842</v>
+        <v>0.06278</v>
       </c>
       <c r="F70" t="n">
-        <v>1.363</v>
+        <v>1.716</v>
       </c>
       <c r="G70" t="n">
-        <v>40.297802</v>
+        <v>10.514569</v>
       </c>
       <c r="H70" t="n">
-        <v>2.05906</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.13325</v>
-      </c>
-      <c r="J70" t="n">
-        <v>42.320984</v>
+        <v>260.275</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.34%</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
       </c>
       <c r="K70" t="n">
-        <v>90.17</v>
+        <v>-516</v>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>buy(+4%)</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23.51, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gilead Sciences, Inc.</t>
+          <t>Exelon Corporation</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>107.72</v>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
       </c>
       <c r="E71" t="n">
-        <v>1.30789</v>
+        <v>1.74861</v>
       </c>
       <c r="F71" t="n">
-        <v>1.369</v>
+        <v>1.086</v>
       </c>
       <c r="G71" t="n">
-        <v>6.9988956</v>
+        <v>1.5984056</v>
       </c>
       <c r="H71" t="n">
-        <v>0.32654998</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.121429995</v>
-      </c>
-      <c r="J71" t="n">
-        <v>22.63025</v>
+        <v>16.24907</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10.1%</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
       </c>
       <c r="K71" t="n">
-        <v>10.75</v>
+        <v>2.25</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -4193,48 +5323,62 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>hold(+7%)</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>19.16, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>GFS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T-Mobile US, Inc.</t>
+          <t>GLOBALFOUNDRIES Inc.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>240.76</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
       </c>
       <c r="E72" t="n">
-        <v>1.99152</v>
+        <v>0.14688</v>
       </c>
       <c r="F72" t="n">
-        <v>1.161</v>
+        <v>2.514</v>
       </c>
       <c r="G72" t="n">
-        <v>4.4812565</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.19351</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.055999998</v>
-      </c>
-      <c r="J72" t="n">
-        <v>23.534702</v>
+        <v>1.8643048</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-1.65%</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
       </c>
       <c r="K72" t="n">
-        <v>5.28</v>
+        <v>6.87</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4248,46 +5392,60 @@
       <c r="O72" t="n">
         <v>3</v>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>buy(+16%)</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>17.03, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Shopify Inc.</t>
+          <t>Intel Corporation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>102.32</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
       </c>
       <c r="E73" t="n">
-        <v>0.10298</v>
+        <v>0.47129</v>
       </c>
       <c r="F73" t="n">
-        <v>3.706</v>
+        <v>1.31</v>
       </c>
       <c r="G73" t="n">
-        <v>12.009389</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.16145</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.07078</v>
-      </c>
-      <c r="J73" t="n">
-        <v>83.18698999999999</v>
+        <v>0.8970659</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-18.13%</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
       </c>
       <c r="K73" t="n">
-        <v>-714.78</v>
+        <v>-4.55</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4296,52 +5454,64 @@
         <v>0</v>
       </c>
       <c r="N73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>3</v>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>hold(+4%)</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>19.17, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CCEP</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coca-Cola Europacific Partners PLC</t>
+          <t>Intuitive Surgical, Inc.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>88.94</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.2739</v>
-      </c>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>552.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>0.8149999999999999</v>
+        <v>4.979</v>
       </c>
       <c r="G74" t="n">
-        <v>4.8284473</v>
+        <v>11.568405</v>
       </c>
       <c r="H74" t="n">
-        <v>0.17027001</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.05341</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25.705202</v>
-      </c>
-      <c r="K74" t="n">
-        <v>10.48</v>
-      </c>
+        <v>80.96187</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>15.96%</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>8.84%</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="b">
         <v>0</v>
       </c>
@@ -4354,46 +5524,62 @@
       <c r="O74" t="n">
         <v>3</v>
       </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>buy(+4%)</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>17.94, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Comcast Corporation</t>
+          <t>Micron Technology, Inc.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>35.1</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
       </c>
       <c r="E75" t="n">
-        <v>1.13542</v>
+        <v>0.30891</v>
       </c>
       <c r="F75" t="n">
-        <v>0.645</v>
+        <v>3.134</v>
       </c>
       <c r="G75" t="n">
-        <v>1.5169194</v>
+        <v>2.2091954</v>
       </c>
       <c r="H75" t="n">
-        <v>0.18049</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.05451</v>
-      </c>
-      <c r="J75" t="n">
-        <v>8.64532</v>
+        <v>22.99043</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>10.1%</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>5.52%</t>
+        </is>
       </c>
       <c r="K75" t="n">
-        <v>5.64</v>
+        <v>2.22</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4407,105 +5593,133 @@
       <c r="O75" t="n">
         <v>3</v>
       </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>buy(+28%)</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>18.6, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Amgen Inc.</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>271.34</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
       </c>
       <c r="E76" t="n">
-        <v>9.24456</v>
+        <v>0.32346</v>
       </c>
       <c r="F76" t="n">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="G76" t="n">
-        <v>23.504852</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1.0567299</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.07037</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24.7573</v>
+        <v>4.207675</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-6.26%</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
       </c>
       <c r="K76" t="n">
-        <v>2.3</v>
+        <v>-1.93</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
       </c>
       <c r="M76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
         <v>3</v>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>buy(+48%)</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>14.09, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>Microchip Technology Incorporated</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>112.06</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
       </c>
       <c r="E77" t="n">
-        <v>0.08173999999999999</v>
+        <v>0.81675</v>
       </c>
       <c r="F77" t="n">
-        <v>2.803</v>
+        <v>2.59</v>
       </c>
       <c r="G77" t="n">
-        <v>3.1286817</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.03904</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="J77" t="n">
-        <v>81.795616</v>
+        <v>4.442119</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-0.01%</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
       </c>
       <c r="K77" t="n">
-        <v>22.67</v>
+        <v>13.4</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
       </c>
       <c r="M77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="b">
         <v>1</v>
@@ -4513,45 +5727,61 @@
       <c r="O77" t="n">
         <v>3</v>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>buy(+9%)</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>24.06, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CrowdStrike Holdings, Inc.</t>
+          <t>Monster Beverage Corporation</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>434.74</v>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
       </c>
       <c r="E78" t="n">
-        <v>0.2377</v>
+        <v>0.03998</v>
       </c>
       <c r="F78" t="n">
-        <v>1.766</v>
+        <v>3.375</v>
       </c>
       <c r="G78" t="n">
-        <v>32.85768</v>
+        <v>9.586449999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.00587</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-0.0046900003</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>-4.58</v>
-      </c>
+        <v>42.167763</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>14.24%</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="b">
         <v>0</v>
       </c>
@@ -4559,51 +5789,67 @@
         <v>0</v>
       </c>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>3</v>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>buy(-4%)</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>28.96, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Workday, Inc.</t>
+          <t>PayPal Holdings, Inc.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>268.54</v>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
       </c>
       <c r="E79" t="n">
-        <v>0.37215</v>
+        <v>0.6604099999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>1.901</v>
+        <v>1.3</v>
       </c>
       <c r="G79" t="n">
-        <v>7.9173303</v>
+        <v>3.4454756</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06146</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.01812</v>
-      </c>
-      <c r="J79" t="n">
-        <v>137.01021</v>
+        <v>16.017979</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>22.2%</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4.45%</t>
+        </is>
       </c>
       <c r="K79" t="n">
-        <v>4.38</v>
+        <v>15.09</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4617,44 +5863,62 @@
       <c r="O79" t="n">
         <v>3</v>
       </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>buy(+16%)</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>19.03, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Shopify Inc.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>20.69</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>105.91</t>
+        </is>
       </c>
       <c r="E80" t="n">
-        <v>0.47129</v>
+        <v>0.10298</v>
       </c>
       <c r="F80" t="n">
-        <v>1.31</v>
+        <v>3.706</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9047182</v>
+        <v>12.430457</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.18127</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-0.01092</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>86.10366</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>16.14%</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>7.08%</t>
+        </is>
+      </c>
       <c r="K80" t="n">
-        <v>-4.55</v>
+        <v>-714.78</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -4663,51 +5927,67 @@
         <v>0</v>
       </c>
       <c r="N80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>3</v>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>buy(+8%)</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>22.88, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DoorDash, Inc.</t>
+          <t>T-Mobile US, Inc.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>204.77</v>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>242.37</t>
+        </is>
       </c>
       <c r="E81" t="n">
-        <v>0.06278</v>
+        <v>1.99152</v>
       </c>
       <c r="F81" t="n">
-        <v>1.716</v>
+        <v>1.161</v>
       </c>
       <c r="G81" t="n">
-        <v>10.340353</v>
+        <v>4.5111847</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04336</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.01424</v>
-      </c>
-      <c r="J81" t="n">
-        <v>255.96251</v>
+        <v>23.645649</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>19.35%</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
       </c>
       <c r="K81" t="n">
-        <v>-516</v>
+        <v>5.28</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4721,52 +6001,68 @@
       <c r="O81" t="n">
         <v>3</v>
       </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>buy(+11%)</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>22.97, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Exelon Corporation</t>
+          <t>Verisk Analytics, Inc.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>44.19</v>
+          <t>Consulting Services</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>316.33</t>
+        </is>
       </c>
       <c r="E82" t="n">
-        <v>1.74861</v>
+        <v>31.78837</v>
       </c>
       <c r="F82" t="n">
-        <v>1.086</v>
+        <v>1.268</v>
       </c>
       <c r="G82" t="n">
-        <v>1.6159583</v>
+        <v>359.88052</v>
       </c>
       <c r="H82" t="n">
-        <v>0.10099</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.02755</v>
-      </c>
-      <c r="J82" t="n">
-        <v>16.42751</v>
+        <v>46.51985</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>468.22%</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
       </c>
       <c r="K82" t="n">
-        <v>2.25</v>
+        <v>10.06</v>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
@@ -4774,50 +6070,68 @@
       <c r="O82" t="n">
         <v>3</v>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>hold(-4%)</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>17.65, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Microchip Technology Incorporated</t>
+          <t>Workday, Inc.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>59.25</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>239.18</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>0.79545</v>
+        <v>0.38042</v>
       </c>
       <c r="F83" t="n">
-        <v>2.59</v>
+        <v>2.067</v>
       </c>
       <c r="G83" t="n">
-        <v>4.505018</v>
+        <v>7.1471686</v>
       </c>
       <c r="H83" t="n">
-        <v>-6.999999999999999e-05</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.01598</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>133.62012</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
       <c r="K83" t="n">
-        <v>13.4</v>
+        <v>4.38</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
       </c>
       <c r="M83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="b">
         <v>1</v>
@@ -4825,47 +6139,65 @@
       <c r="O83" t="n">
         <v>3</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>buy(+25%)</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>16.19, LAG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GLOBALFOUNDRIES Inc.</t>
+          <t>Xcel Energy Inc.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>37.75</v>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>69.46</t>
+        </is>
       </c>
       <c r="E84" t="n">
-        <v>0.14688</v>
+        <v>1.63558</v>
       </c>
       <c r="F84" t="n">
-        <v>2.514</v>
+        <v>0.796</v>
       </c>
       <c r="G84" t="n">
-        <v>1.8944147</v>
+        <v>2.0221841</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.01652</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.02619</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>20.42941</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
       <c r="K84" t="n">
-        <v>6.87</v>
+        <v>2.02</v>
       </c>
       <c r="L84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
@@ -4876,47 +6208,63 @@
       <c r="O84" t="n">
         <v>3</v>
       </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>buy(+8%)</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>29.51, AVG_PERF</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>Atlassian Corporation</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>60.11</v>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>211.39</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0.32346</v>
+        <v>0.89896</v>
       </c>
       <c r="F85" t="n">
-        <v>1.54</v>
+        <v>1.262</v>
       </c>
       <c r="G85" t="n">
-        <v>3.876814</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-0.06264</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-0.00026</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>40.63629</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-34.33%</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-1.93%</t>
+        </is>
+      </c>
       <c r="K85" t="n">
-        <v>-1.93</v>
+        <v>-3.44</v>
       </c>
       <c r="L85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -4925,104 +6273,134 @@
         <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>buy(+32%)</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>17.68, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Micron Technology, Inc.</t>
+          <t>Charter Communications, Inc.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>95.84</v>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>410.04</t>
+        </is>
       </c>
       <c r="E86" t="n">
-        <v>0.30891</v>
+        <v>4.65632</v>
       </c>
       <c r="F86" t="n">
-        <v>3.134</v>
+        <v>0.363</v>
       </c>
       <c r="G86" t="n">
-        <v>2.2032182</v>
+        <v>3.5424929</v>
       </c>
       <c r="H86" t="n">
-        <v>0.101009995</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.055219997</v>
-      </c>
-      <c r="J86" t="n">
-        <v>22.92823</v>
+        <v>11.437657</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>33.12%</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>5.64%</t>
+        </is>
       </c>
       <c r="K86" t="n">
-        <v>2.22</v>
+        <v>2.53</v>
       </c>
       <c r="L86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
       </c>
       <c r="N86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>buy(+4%)</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>24.08, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Xcel Energy Inc.</t>
+          <t>CoStar Group, Inc.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>69.92</v>
+          <t>Real Estate Services</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>74.83</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>1.63558</v>
+        <v>0.13085</v>
       </c>
       <c r="F87" t="n">
-        <v>0.796</v>
+        <v>6.01</v>
       </c>
       <c r="G87" t="n">
-        <v>2.035576</v>
+        <v>3.7007916</v>
       </c>
       <c r="H87" t="n">
-        <v>0.102589995</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.02172</v>
-      </c>
-      <c r="J87" t="n">
-        <v>20.564705</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.02</v>
-      </c>
+        <v>267.25</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1.47%</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -5031,45 +6409,65 @@
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>buy(+17%)</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>21.56, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Intuitive Surgical, Inc.</t>
+          <t>Datadog, Inc.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>547.0700000000001</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>117.45</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.64364</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.979</v>
+        <v>2.737</v>
       </c>
       <c r="G88" t="n">
-        <v>11.461764</v>
+        <v>13.890137</v>
       </c>
       <c r="H88" t="n">
-        <v>0.15958</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.08841</v>
-      </c>
-      <c r="J88" t="n">
-        <v>79.98099499999999</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>249.90427</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>7.68</v>
+      </c>
       <c r="L88" t="b">
         <v>0</v>
       </c>
@@ -5080,48 +6478,64 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>buy(+15%)</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>16.27, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PayPal Holdings, Inc.</t>
+          <t>GE HealthCare Technologies Inc.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>71.65000000000001</v>
+          <t>Health Information Services</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
       </c>
       <c r="E89" t="n">
-        <v>0.6604099999999999</v>
+        <v>0.97515</v>
       </c>
       <c r="F89" t="n">
-        <v>1.3</v>
+        <v>0.977</v>
       </c>
       <c r="G89" t="n">
-        <v>3.4633605</v>
+        <v>3.5283566</v>
       </c>
       <c r="H89" t="n">
-        <v>0.22198999</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.04448</v>
-      </c>
-      <c r="J89" t="n">
-        <v>16.101124</v>
+        <v>14.873949</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>26.44%</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>5.87%</t>
+        </is>
       </c>
       <c r="K89" t="n">
-        <v>15.09</v>
+        <v>5.2</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -5130,51 +6544,67 @@
         <v>0</v>
       </c>
       <c r="N89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>buy(+23%)</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>21.46, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Verisk Analytics, Inc.</t>
+          <t>Keurig Dr Pepper Inc.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>312.33</v>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
       </c>
       <c r="E90" t="n">
-        <v>31.78837</v>
+        <v>0.7641800000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>1.268</v>
+        <v>0.474</v>
       </c>
       <c r="G90" t="n">
-        <v>355.32422</v>
+        <v>1.8247223</v>
       </c>
       <c r="H90" t="n">
-        <v>4.68222</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.16698</v>
-      </c>
-      <c r="J90" t="n">
-        <v>46.06637</v>
+        <v>29.85909</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4.06%</t>
+        </is>
       </c>
       <c r="K90" t="n">
-        <v>10.06</v>
+        <v>4.5</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -5183,47 +6613,65 @@
         <v>0</v>
       </c>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>buy(+18%)</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>23.93, AVG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marriott International, Inc.</t>
+          <t>Strategy Incorporated</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>260.69</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>360.57</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.24442</v>
+      </c>
       <c r="F91" t="n">
-        <v>0.452</v>
+        <v>0.66</v>
       </c>
       <c r="G91" t="n">
-        <v>-22.62934</v>
+        <v>2.9786553</v>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>0.09397999999999999</v>
-      </c>
-      <c r="J91" t="n">
-        <v>29.657566</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-29.68%</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-18.82%</t>
+        </is>
       </c>
       <c r="K91" t="n">
-        <v>5.53</v>
+        <v>-1.02</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -5235,47 +6683,63 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>buy(+47%)</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>31.09, LEAD_PERF</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Monster Beverage Corporation</t>
+          <t>Warner Bros. Discovery, Inc.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>63.1</v>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
       </c>
       <c r="E92" t="n">
-        <v>0.03998</v>
+        <v>1.06412</v>
       </c>
       <c r="F92" t="n">
-        <v>3.375</v>
+        <v>0.836</v>
       </c>
       <c r="G92" t="n">
-        <v>9.437631</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.20004</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.14239</v>
-      </c>
-      <c r="J92" t="n">
-        <v>41.513157</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>0.71371144</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-27.28%</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0.01</v>
+      </c>
       <c r="L92" t="b">
         <v>0</v>
       </c>
@@ -5286,49 +6750,65 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>buy(+41%)</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>13.57, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Atlassian Corporation</t>
+          <t>Zscaler, Inc.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>209.17</v>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>253.29</t>
+        </is>
       </c>
       <c r="E93" t="n">
-        <v>0.89896</v>
+        <v>0.7709</v>
       </c>
       <c r="F93" t="n">
-        <v>1.262</v>
+        <v>1.202</v>
       </c>
       <c r="G93" t="n">
-        <v>40.209534</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-0.34334</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-0.01928</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>24.383425</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-1.41%</t>
+        </is>
+      </c>
       <c r="K93" t="n">
-        <v>-3.44</v>
+        <v>-9.25</v>
       </c>
       <c r="L93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
@@ -5337,51 +6817,59 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>buy(-3%)</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>16.52, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Charter Communications, Inc.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>415.44</v>
-      </c>
+          <t>AppLovin Corporation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>4.65632</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>3.5891454</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.33116</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.05639</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.588285</v>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K94" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="L94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
@@ -5390,47 +6878,49 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CoStar Group, Inc.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>73.95999999999999</v>
-      </c>
+          <t>Alphabet Inc.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>0.13085</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>3.6577647</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01474</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.0014300001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>264.14285</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
       <c r="L95" t="b">
         <v>0</v>
       </c>
@@ -5438,51 +6928,51 @@
         <v>0</v>
       </c>
       <c r="N95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GE HealthCare Technologies Inc.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>69.58</v>
-      </c>
+          <t>ASML Holding N.V.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>0.97515</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.977</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>3.4675572</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.26444</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.05867</v>
-      </c>
-      <c r="J96" t="n">
-        <v>14.617647</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K96" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5494,48 +6984,48 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Datadog, Inc.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>113.69</v>
-      </c>
+          <t>AstraZeneca PLC</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>0.64364</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2.737</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>13.444891</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.06476</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.00368</v>
-      </c>
-      <c r="J97" t="n">
-        <v>241.89362</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K97" t="n">
-        <v>7.68</v>
+        <v>0</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5544,51 +7034,51 @@
         <v>0</v>
       </c>
       <c r="N97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper Inc.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>33.59</v>
-      </c>
+          <t>Booking Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>0.7641800000000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.474</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1.8661112</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.06126</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.04058</v>
-      </c>
-      <c r="J98" t="n">
-        <v>30.536364</v>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K98" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5597,49 +7087,51 @@
         <v>0</v>
       </c>
       <c r="N98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strategy Incorporated</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>402.69</v>
-      </c>
+          <t>Marriott International, Inc.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>0.24442</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3.326587</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.29677</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-0.18825</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K99" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5651,46 +7143,48 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery, Inc.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>8.949999999999999</v>
-      </c>
+          <t>O'Reilly Automotive, Inc.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>1.06412</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.836</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6541441</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.27281</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.0050199996</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K100" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -5702,46 +7196,54 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zscaler, Inc.</t>
+          <t>Take-Two Interactive Software, Inc.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>248.72</v>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>227.46</t>
+        </is>
       </c>
       <c r="E101" t="n">
-        <v>0.7709</v>
+        <v>1.92071</v>
       </c>
       <c r="F101" t="n">
-        <v>1.202</v>
+        <v>0.779</v>
       </c>
       <c r="G101" t="n">
-        <v>23.943012</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-0.0121</v>
-      </c>
-      <c r="I101" t="n">
-        <v>-0.014090001</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>18.84351</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-114.76%</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-2.64%</t>
+        </is>
+      </c>
       <c r="K101" t="n">
-        <v>-9.25</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -5750,49 +7252,59 @@
         <v>0</v>
       </c>
       <c r="N101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>buy(+7%)</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>14.88, LAG_PERF</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Take-Two Interactive Software, Inc.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>226.76</v>
-      </c>
+          <t>Starbucks Corporation</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>1.92071</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.779</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>18.785519</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.1476101</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-0.02636</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K102" t="n">
-        <v>-8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -5806,6 +7318,8 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
